--- a/R/cointegration/summaries/cointegration-summary.xlsx
+++ b/R/cointegration/summaries/cointegration-summary.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6723" uniqueCount="1032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6996" uniqueCount="1071">
   <si>
     <t>Hyperparameters</t>
   </si>
@@ -114,10 +114,10 @@
     <t>BOTSWANA</t>
   </si>
   <si>
-    <t>0.972</t>
-  </si>
-  <si>
-    <t>1.00000000060534</t>
+    <t>-1.0123</t>
+  </si>
+  <si>
+    <t>1.00000000050586</t>
   </si>
   <si>
     <t>KENYA</t>
@@ -135,10 +135,10 @@
     <t>BURUNDI</t>
   </si>
   <si>
-    <t>0.141</t>
-  </si>
-  <si>
-    <t>0.999999999938044</t>
+    <t>0.4604</t>
+  </si>
+  <si>
+    <t>0.999999999892862</t>
   </si>
   <si>
     <t>CONGODR</t>
@@ -156,10 +156,10 @@
     <t>CAMEROON</t>
   </si>
   <si>
-    <t>0.3863</t>
-  </si>
-  <si>
-    <t>0.999999999652715</t>
+    <t>-1.135</t>
+  </si>
+  <si>
+    <t>0.999999999712607</t>
   </si>
   <si>
     <t>MOROCCO</t>
@@ -177,133 +177,133 @@
     <t>CAR</t>
   </si>
   <si>
-    <t>-0.2382</t>
-  </si>
-  <si>
-    <t>0.986235980894776</t>
+    <t>0.0402</t>
+  </si>
+  <si>
+    <t>0.986235980654163</t>
   </si>
   <si>
     <t>COMOROS</t>
   </si>
   <si>
-    <t>-2.8403</t>
-  </si>
-  <si>
-    <t>0.971715111077643</t>
+    <t>1.9953</t>
+  </si>
+  <si>
+    <t>0.971715110563683</t>
   </si>
   <si>
     <t>CONGOREPUB</t>
   </si>
   <si>
-    <t>0.2407</t>
-  </si>
-  <si>
-    <t>0.960520910478075</t>
+    <t>-0.4767</t>
+  </si>
+  <si>
+    <t>0.960520910694706</t>
   </si>
   <si>
     <t>GABON</t>
   </si>
   <si>
-    <t>-0.486</t>
-  </si>
-  <si>
-    <t>0.93185217036014</t>
+    <t>-1.2826</t>
+  </si>
+  <si>
+    <t>0.931852169910732</t>
   </si>
   <si>
     <t>GAMBIA</t>
   </si>
   <si>
-    <t>0.0213</t>
-  </si>
-  <si>
-    <t>0.918317473041848</t>
+    <t>2.6105</t>
+  </si>
+  <si>
+    <t>0.918317472785825</t>
   </si>
   <si>
     <t>IVORYCOAST</t>
   </si>
   <si>
-    <t>-0.0219</t>
-  </si>
-  <si>
-    <t>0.88806027558317</t>
-  </si>
-  <si>
-    <t>-1.8184</t>
-  </si>
-  <si>
-    <t>0.852508440121115</t>
+    <t>1.4644</t>
+  </si>
+  <si>
+    <t>0.888060275698236</t>
+  </si>
+  <si>
+    <t>2.4602</t>
+  </si>
+  <si>
+    <t>0.852508440861782</t>
   </si>
   <si>
     <t>LESOTHO</t>
   </si>
   <si>
-    <t>1.6272</t>
-  </si>
-  <si>
-    <t>0.781042807549768</t>
+    <t>2.7467</t>
+  </si>
+  <si>
+    <t>0.781042806618593</t>
   </si>
   <si>
     <t>MALAWI</t>
   </si>
   <si>
-    <t>-0.3268</t>
-  </si>
-  <si>
-    <t>0.687251478450765</t>
+    <t>-0.5035</t>
+  </si>
+  <si>
+    <t>0.687251477696899</t>
   </si>
   <si>
     <t>MAURITIUS</t>
   </si>
   <si>
-    <t>0.3591</t>
-  </si>
-  <si>
-    <t>0.605411484422396</t>
-  </si>
-  <si>
-    <t>-1.6106</t>
-  </si>
-  <si>
-    <t>0.559357276936609</t>
+    <t>2.5638</t>
+  </si>
+  <si>
+    <t>0.605411483002713</t>
+  </si>
+  <si>
+    <t>-6.5401</t>
+  </si>
+  <si>
+    <t>0.559357276335125</t>
   </si>
   <si>
     <t>SEYCHELLES</t>
   </si>
   <si>
-    <t>0.1073</t>
-  </si>
-  <si>
-    <t>0.46316574702791</t>
+    <t>-2.051</t>
+  </si>
+  <si>
+    <t>0.463165747160103</t>
   </si>
   <si>
     <t>SOUTHAFRICA</t>
   </si>
   <si>
-    <t>2.9276</t>
-  </si>
-  <si>
-    <t>0.404617362885685</t>
+    <t>-1.0742</t>
+  </si>
+  <si>
+    <t>0.404617364152118</t>
   </si>
   <si>
     <t>TOGO</t>
   </si>
   <si>
-    <t>0.0846</t>
-  </si>
-  <si>
-    <t>0.351523122988744</t>
+    <t>-0.3525</t>
+  </si>
+  <si>
+    <t>0.351523122306881</t>
   </si>
   <si>
     <t>TUNISIA</t>
   </si>
   <si>
-    <t>-1.1053</t>
-  </si>
-  <si>
-    <t>0.273583614427923</t>
-  </si>
-  <si>
-    <t>0.142606028222513</t>
+    <t>0.1699</t>
+  </si>
+  <si>
+    <t>0.273583614234673</t>
+  </si>
+  <si>
+    <t>0.142606030137833</t>
   </si>
   <si>
     <t>NIGER</t>
@@ -312,7 +312,7 @@
     <t>0.13</t>
   </si>
   <si>
-    <t>0.290872555629429</t>
+    <t>0.290872555634475</t>
   </si>
   <si>
     <t>ETHIOPIA</t>
@@ -330,7 +330,7 @@
     <t>-1.0873</t>
   </si>
   <si>
-    <t>0.212012702254365</t>
+    <t>0.21201270206516</t>
   </si>
   <si>
     <t>SIERRALEONE</t>
@@ -345,7 +345,7 @@
     <t>-0.2295</t>
   </si>
   <si>
-    <t>0.0479780180608089</t>
+    <t>0.0479780181184601</t>
   </si>
   <si>
     <t>0.3942</t>
@@ -360,7 +360,7 @@
     <t>-1.0348</t>
   </si>
   <si>
-    <t>0.676601981319604</t>
+    <t>0.676601982961308</t>
   </si>
   <si>
     <t>0.2968</t>
@@ -375,7 +375,7 @@
     <t>-0.1299</t>
   </si>
   <si>
-    <t>0.583945020020918</t>
+    <t>0.583945020310714</t>
   </si>
   <si>
     <t>0.2852</t>
@@ -387,7 +387,7 @@
     <t>-0.0498</t>
   </si>
   <si>
-    <t>0.532593018079521</t>
+    <t>0.532593017697347</t>
   </si>
   <si>
     <t>0.2391</t>
@@ -402,7 +402,7 @@
     <t>0.1215</t>
   </si>
   <si>
-    <t>0.391924683750859</t>
+    <t>0.391924683925726</t>
   </si>
   <si>
     <t>GUINEABISSAU</t>
@@ -411,7 +411,7 @@
     <t>-0.1621</t>
   </si>
   <si>
-    <t>0.31168219676244</t>
+    <t>0.311682197788574</t>
   </si>
   <si>
     <t>MALI</t>
@@ -420,13 +420,13 @@
     <t>-0.1355</t>
   </si>
   <si>
-    <t>0.248182858127644</t>
+    <t>0.248182858185821</t>
   </si>
   <si>
     <t>-0.3023</t>
   </si>
   <si>
-    <t>0.180242423346898</t>
+    <t>0.180242422753598</t>
   </si>
   <si>
     <t>SUDAN</t>
@@ -435,10 +435,10 @@
     <t>0.7284</t>
   </si>
   <si>
-    <t>0.166879852611352</t>
-  </si>
-  <si>
-    <t>0.0582803170240555</t>
+    <t>0.166879852721664</t>
+  </si>
+  <si>
+    <t>0.0582803164659352</t>
   </si>
   <si>
     <t>ALGERIA</t>
@@ -447,7 +447,7 @@
     <t>-1.2529</t>
   </si>
   <si>
-    <t>0.176330762999715</t>
+    <t>0.1763307628065</t>
   </si>
   <si>
     <t>ZIMBABWE</t>
@@ -462,7 +462,7 @@
     <t>-2.1772</t>
   </si>
   <si>
-    <t>0.134026527484232</t>
+    <t>0.134026527376548</t>
   </si>
   <si>
     <t>0.3824</t>
@@ -471,7 +471,7 @@
     <t>-0.238</t>
   </si>
   <si>
-    <t>0.0526559061691801</t>
+    <t>0.0526559061523307</t>
   </si>
   <si>
     <t>0.3372</t>
@@ -483,7 +483,7 @@
     <t>-0.6725</t>
   </si>
   <si>
-    <t>0.442236512031218</t>
+    <t>0.442236512625435</t>
   </si>
   <si>
     <t>0.3703</t>
@@ -495,7 +495,7 @@
     <t>0.0828</t>
   </si>
   <si>
-    <t>0.406483776420609</t>
+    <t>0.406483776979987</t>
   </si>
   <si>
     <t>TANZANIA</t>
@@ -510,7 +510,7 @@
     <t>0.1503</t>
   </si>
   <si>
-    <t>0.305339719507463</t>
+    <t>0.305339718955121</t>
   </si>
   <si>
     <t>ANGOLA</t>
@@ -528,22 +528,22 @@
     <t>-0.1866</t>
   </si>
   <si>
-    <t>0.231117698739912</t>
+    <t>0.231117699027508</t>
   </si>
   <si>
     <t>-0.5157</t>
   </si>
   <si>
-    <t>0.191513236173518</t>
-  </si>
-  <si>
-    <t>0.00211121272732268</t>
+    <t>0.191513236024168</t>
+  </si>
+  <si>
+    <t>0.00211121274271225</t>
   </si>
   <si>
     <t>-3.0623</t>
   </si>
   <si>
-    <t>0.353055017902626</t>
+    <t>0.353055018515013</t>
   </si>
   <si>
     <t>0.2906</t>
@@ -555,7 +555,7 @@
     <t>-0.6691</t>
   </si>
   <si>
-    <t>0.25339032269357</t>
+    <t>0.253390322769496</t>
   </si>
   <si>
     <t>EGYPT</t>
@@ -570,7 +570,7 @@
     <t>2.6522</t>
   </si>
   <si>
-    <t>0.211719221412628</t>
+    <t>0.211719221360972</t>
   </si>
   <si>
     <t>DJIBOUTI</t>
@@ -582,13 +582,13 @@
     <t>-0.1979</t>
   </si>
   <si>
-    <t>0.0237424884169412</t>
+    <t>0.0237424883986031</t>
   </si>
   <si>
     <t>21.4761</t>
   </si>
   <si>
-    <t>0.362932421669597</t>
+    <t>0.362932421420111</t>
   </si>
   <si>
     <t>EQGUINEA</t>
@@ -603,7 +603,7 @@
     <t>-30.7115</t>
   </si>
   <si>
-    <t>0.308886432849962</t>
+    <t>0.308886433087423</t>
   </si>
   <si>
     <t>0.2018</t>
@@ -615,7 +615,7 @@
     <t>41.9208</t>
   </si>
   <si>
-    <t>0.171973803007378</t>
+    <t>0.17197380285728</t>
   </si>
   <si>
     <t>0.1749</t>
@@ -627,16 +627,16 @@
     <t>-75.1328</t>
   </si>
   <si>
-    <t>0.105595155297676</t>
-  </si>
-  <si>
-    <t>0.00219930201528522</t>
+    <t>0.105595155034927</t>
+  </si>
+  <si>
+    <t>0.00219930203448835</t>
   </si>
   <si>
     <t>2.7528</t>
   </si>
   <si>
-    <t>0.495453854452626</t>
+    <t>0.495453853921874</t>
   </si>
   <si>
     <t>0.3641</t>
@@ -648,7 +648,7 @@
     <t>-0.0719</t>
   </si>
   <si>
-    <t>0.280328448818774</t>
+    <t>0.280328448891802</t>
   </si>
   <si>
     <t>0.3579</t>
@@ -660,7 +660,7 @@
     <t>-0.2076</t>
   </si>
   <si>
-    <t>0.243640584161254</t>
+    <t>0.243640583940589</t>
   </si>
   <si>
     <t>LIBERIA</t>
@@ -675,7 +675,7 @@
     <t>-2.9743</t>
   </si>
   <si>
-    <t>0.169129529364654</t>
+    <t>0.169129529147082</t>
   </si>
   <si>
     <t>RWANDA</t>
@@ -684,22 +684,46 @@
     <t>-0.341</t>
   </si>
   <si>
-    <t>0.108783343555725</t>
-  </si>
-  <si>
-    <t>0.0278697454718891</t>
+    <t>0.108783343530814</t>
+  </si>
+  <si>
+    <t>0.0278697455611107</t>
   </si>
   <si>
     <t>CAR: No cointegration relationship found for these hyperparameters!</t>
   </si>
   <si>
+    <t>0.2301</t>
+  </si>
+  <si>
+    <t>LIBYA</t>
+  </si>
+  <si>
+    <t>-0.4892</t>
+  </si>
+  <si>
+    <t>0.2118</t>
+  </si>
+  <si>
+    <t>-0.2783</t>
+  </si>
+  <si>
+    <t>SOMALIA</t>
+  </si>
+  <si>
+    <t>0.1318</t>
+  </si>
+  <si>
+    <t>-0.2675</t>
+  </si>
+  <si>
     <t>GHANA</t>
   </si>
   <si>
     <t>-0.3697</t>
   </si>
   <si>
-    <t>0.329981666827429</t>
+    <t>0.329981667086889</t>
   </si>
   <si>
     <t>0.4246</t>
@@ -714,7 +738,7 @@
     <t>-0.5128</t>
   </si>
   <si>
-    <t>0.12979583946525</t>
+    <t>0.129795839556106</t>
   </si>
   <si>
     <t>0.2463</t>
@@ -726,7 +750,7 @@
     <t>-0.5516</t>
   </si>
   <si>
-    <t>0.112233121364325</t>
+    <t>0.112233120881124</t>
   </si>
   <si>
     <t>0.2311</t>
@@ -735,13 +759,13 @@
     <t>-0.2272</t>
   </si>
   <si>
-    <t>0.0718459024957006</t>
+    <t>0.0718459025724982</t>
   </si>
   <si>
     <t>11.1371</t>
   </si>
   <si>
-    <t>0.463518321187142</t>
+    <t>0.463518320770236</t>
   </si>
   <si>
     <t>0.4941</t>
@@ -753,7 +777,7 @@
     <t>-1.8006</t>
   </si>
   <si>
-    <t>0.200147533658737</t>
+    <t>0.200147533694541</t>
   </si>
   <si>
     <t>0.2631</t>
@@ -765,22 +789,40 @@
     <t>-10.9034</t>
   </si>
   <si>
-    <t>0.161462832879643</t>
+    <t>0.161462832734562</t>
   </si>
   <si>
     <t>-0.2486</t>
   </si>
   <si>
-    <t>0.0552344228326639</t>
+    <t>0.0552344228234175</t>
   </si>
   <si>
     <t>CONGODR: No cointegration relationship found for these hyperparameters!</t>
   </si>
   <si>
+    <t>0.5106</t>
+  </si>
+  <si>
+    <t>-0.254</t>
+  </si>
+  <si>
+    <t>0.3873</t>
+  </si>
+  <si>
+    <t>-0.207</t>
+  </si>
+  <si>
+    <t>0.3439</t>
+  </si>
+  <si>
+    <t>-0.1869</t>
+  </si>
+  <si>
     <t>-0.8113</t>
   </si>
   <si>
-    <t>0.466630666498643</t>
+    <t>0.466630666095638</t>
   </si>
   <si>
     <t>0.3257</t>
@@ -792,7 +834,7 @@
     <t>-0.0854</t>
   </si>
   <si>
-    <t>0.221457231975633</t>
+    <t>0.221457232001967</t>
   </si>
   <si>
     <t>0.2873</t>
@@ -804,7 +846,7 @@
     <t>0.1438</t>
   </si>
   <si>
-    <t>0.187757658688512</t>
+    <t>0.187757658751213</t>
   </si>
   <si>
     <t>0.2824</t>
@@ -816,16 +858,16 @@
     <t>-0.2386</t>
   </si>
   <si>
-    <t>0.119614304338917</t>
-  </si>
-  <si>
-    <t>0.0775365404950824</t>
+    <t>0.119614304134149</t>
+  </si>
+  <si>
+    <t>0.0775365403584444</t>
   </si>
   <si>
     <t>-2.4357</t>
   </si>
   <si>
-    <t>0.473503557983591</t>
+    <t>0.473503558457359</t>
   </si>
   <si>
     <t>0.5941</t>
@@ -837,7 +879,7 @@
     <t>0.6976</t>
   </si>
   <si>
-    <t>0.269433619835317</t>
+    <t>0.269433619494364</t>
   </si>
   <si>
     <t>0.3769</t>
@@ -849,7 +891,7 @@
     <t>-0.5977</t>
   </si>
   <si>
-    <t>0.206414307198706</t>
+    <t>0.206414306386438</t>
   </si>
   <si>
     <t>0.3717</t>
@@ -858,13 +900,13 @@
     <t>-0.2694</t>
   </si>
   <si>
-    <t>0.0221172065306879</t>
+    <t>0.0221172065229312</t>
   </si>
   <si>
     <t>-0.6139</t>
   </si>
   <si>
-    <t>0.436552965759097</t>
+    <t>0.436552965551805</t>
   </si>
   <si>
     <t>0.4097</t>
@@ -876,7 +918,7 @@
     <t>-2.1468</t>
   </si>
   <si>
-    <t>0.352115037029028</t>
+    <t>0.35211503689714</t>
   </si>
   <si>
     <t>0.2672</t>
@@ -888,7 +930,7 @@
     <t>-1.109</t>
   </si>
   <si>
-    <t>0.19844845627998</t>
+    <t>0.198448456408111</t>
   </si>
   <si>
     <t>0.2521</t>
@@ -900,19 +942,37 @@
     <t>1.3512</t>
   </si>
   <si>
-    <t>0.119709247063689</t>
-  </si>
-  <si>
-    <t>0.0505293202456238</t>
+    <t>0.119709247151445</t>
+  </si>
+  <si>
+    <t>0.0505293201058347</t>
   </si>
   <si>
     <t>EQGUINEA: No cointegration relationship found for these hyperparameters!</t>
   </si>
   <si>
+    <t>0.3732</t>
+  </si>
+  <si>
+    <t>-0.4537</t>
+  </si>
+  <si>
+    <t>0.3178</t>
+  </si>
+  <si>
+    <t>-0.2459</t>
+  </si>
+  <si>
+    <t>0.2621</t>
+  </si>
+  <si>
+    <t>-0.2335</t>
+  </si>
+  <si>
     <t>-2.8218</t>
   </si>
   <si>
-    <t>0.101564636417642</t>
+    <t>0.10156463624595</t>
   </si>
   <si>
     <t>0.3316</t>
@@ -921,7 +981,7 @@
     <t>-0.5028</t>
   </si>
   <si>
-    <t>0.000626126308400851</t>
+    <t>0.000626126307188085</t>
   </si>
   <si>
     <t>0.226</t>
@@ -939,10 +999,28 @@
     <t>ETHIOPIA: No cointegration relationship found for these hyperparameters!</t>
   </si>
   <si>
+    <t>0.4138</t>
+  </si>
+  <si>
+    <t>-0.4571</t>
+  </si>
+  <si>
+    <t>0.2882</t>
+  </si>
+  <si>
+    <t>-0.3226</t>
+  </si>
+  <si>
+    <t>0.2853</t>
+  </si>
+  <si>
+    <t>-0.2711</t>
+  </si>
+  <si>
     <t>0.5286</t>
   </si>
   <si>
-    <t>0.332534432214328</t>
+    <t>0.332534432142725</t>
   </si>
   <si>
     <t>0.4211</t>
@@ -954,7 +1032,7 @@
     <t>-0.645</t>
   </si>
   <si>
-    <t>0.20447060696184</t>
+    <t>0.204470606940951</t>
   </si>
   <si>
     <t>0.2884</t>
@@ -966,7 +1044,7 @@
     <t>-1.5778</t>
   </si>
   <si>
-    <t>0.134421938411213</t>
+    <t>0.134421938324967</t>
   </si>
   <si>
     <t>0.2516</t>
@@ -975,13 +1053,13 @@
     <t>-0.2797</t>
   </si>
   <si>
-    <t>0.0819221790364555</t>
+    <t>0.0819221789382968</t>
   </si>
   <si>
     <t>0.4868</t>
   </si>
   <si>
-    <t>0.929315003998276</t>
+    <t>0.929315004000012</t>
   </si>
   <si>
     <t>0.3065</t>
@@ -993,7 +1071,7 @@
     <t>-0.1349</t>
   </si>
   <si>
-    <t>0.896285730277245</t>
+    <t>0.896285731045195</t>
   </si>
   <si>
     <t>0.2417</t>
@@ -1005,7 +1083,7 @@
     <t>-0.3404</t>
   </si>
   <si>
-    <t>0.751838358957643</t>
+    <t>0.751838360341623</t>
   </si>
   <si>
     <t>0.212</t>
@@ -1017,58 +1095,58 @@
     <t>0.6357</t>
   </si>
   <si>
-    <t>0.741074918972006</t>
+    <t>0.741074917904946</t>
   </si>
   <si>
     <t>-1.4193</t>
   </si>
   <si>
-    <t>0.665078511979872</t>
+    <t>0.66507851249442</t>
   </si>
   <si>
     <t>-1.6735</t>
   </si>
   <si>
-    <t>0.581998608798633</t>
+    <t>0.581998609405273</t>
   </si>
   <si>
     <t>0.0668</t>
   </si>
   <si>
-    <t>0.482424813823116</t>
+    <t>0.482424813681105</t>
   </si>
   <si>
     <t>-0.649</t>
   </si>
   <si>
-    <t>0.372034717581449</t>
+    <t>0.372034717947128</t>
   </si>
   <si>
     <t>-0.4173</t>
   </si>
   <si>
-    <t>0.335691349560276</t>
+    <t>0.33569135005223</t>
   </si>
   <si>
     <t>0.9705</t>
   </si>
   <si>
-    <t>0.269538664273821</t>
+    <t>0.26953866457616</t>
   </si>
   <si>
     <t>1.5035</t>
   </si>
   <si>
-    <t>0.232194683573523</t>
+    <t>0.232194683050475</t>
   </si>
   <si>
     <t>0.5951</t>
   </si>
   <si>
-    <t>0.164590186179386</t>
-  </si>
-  <si>
-    <t>0.0256312268155753</t>
+    <t>0.164590186495129</t>
+  </si>
+  <si>
+    <t>0.0256312271123681</t>
   </si>
   <si>
     <t>CHAD</t>
@@ -1077,7 +1155,7 @@
     <t>-2.705</t>
   </si>
   <si>
-    <t>0.329981666827549</t>
+    <t>0.329981667087163</t>
   </si>
   <si>
     <t>0.3557</t>
@@ -1089,19 +1167,16 @@
     <t>1.3871</t>
   </si>
   <si>
-    <t>0.129795839464765</t>
+    <t>0.129795839555858</t>
   </si>
   <si>
     <t>0.2688</t>
   </si>
   <si>
-    <t>-0.2711</t>
-  </si>
-  <si>
     <t>1.4922</t>
   </si>
   <si>
-    <t>0.112233121364416</t>
+    <t>0.112233120881067</t>
   </si>
   <si>
     <t>0.262</t>
@@ -1110,13 +1185,13 @@
     <t>-0.2348</t>
   </si>
   <si>
-    <t>0.0718459024957046</t>
+    <t>0.0718459025724921</t>
   </si>
   <si>
     <t>-0.5745</t>
   </si>
   <si>
-    <t>0.50950332696169</t>
+    <t>0.509503326889568</t>
   </si>
   <si>
     <t>MOZAMBIQUE</t>
@@ -1131,7 +1206,7 @@
     <t>0.2813</t>
   </si>
   <si>
-    <t>0.379657793103536</t>
+    <t>0.379657792835685</t>
   </si>
   <si>
     <t>0.2003</t>
@@ -1143,7 +1218,7 @@
     <t>-0.0864</t>
   </si>
   <si>
-    <t>0.309912481605067</t>
+    <t>0.30991248090522</t>
   </si>
   <si>
     <t>0.1773</t>
@@ -1155,22 +1230,22 @@
     <t>-0.8563</t>
   </si>
   <si>
-    <t>0.200368691062096</t>
+    <t>0.20036869070334</t>
   </si>
   <si>
     <t>0.7218</t>
   </si>
   <si>
-    <t>0.127029865322462</t>
-  </si>
-  <si>
-    <t>0.0328399592528646</t>
+    <t>0.127029865330445</t>
+  </si>
+  <si>
+    <t>0.0328399593023654</t>
   </si>
   <si>
     <t>2.7876</t>
   </si>
   <si>
-    <t>0.999049787606746</t>
+    <t>0.99904978744931</t>
   </si>
   <si>
     <t>0.1625</t>
@@ -1182,7 +1257,7 @@
     <t>3.2744</t>
   </si>
   <si>
-    <t>0.997943572658572</t>
+    <t>0.997943575119947</t>
   </si>
   <si>
     <t>0.1511</t>
@@ -1194,7 +1269,7 @@
     <t>10.2075</t>
   </si>
   <si>
-    <t>0.972261007296929</t>
+    <t>0.972261007084275</t>
   </si>
   <si>
     <t>0.1481</t>
@@ -1206,94 +1281,94 @@
     <t>-2.4029</t>
   </si>
   <si>
-    <t>0.963690474561061</t>
+    <t>0.96369047486234</t>
   </si>
   <si>
     <t>2.0201</t>
   </si>
   <si>
-    <t>0.916610759047668</t>
+    <t>0.916610757481129</t>
   </si>
   <si>
     <t>-9.0439</t>
   </si>
   <si>
-    <t>0.873141089339075</t>
+    <t>0.873141089893333</t>
   </si>
   <si>
     <t>-0.251</t>
   </si>
   <si>
-    <t>0.850056933507891</t>
+    <t>0.850056932485472</t>
   </si>
   <si>
     <t>-2.3868</t>
   </si>
   <si>
-    <t>0.779691188454167</t>
+    <t>0.779691190341828</t>
   </si>
   <si>
     <t>-2.0331</t>
   </si>
   <si>
-    <t>0.731971951016414</t>
+    <t>0.731971950327295</t>
   </si>
   <si>
     <t>4.3343</t>
   </si>
   <si>
-    <t>0.693073045806538</t>
+    <t>0.693073045847179</t>
   </si>
   <si>
     <t>1.0898</t>
   </si>
   <si>
-    <t>0.653389447432103</t>
+    <t>0.653389447245898</t>
   </si>
   <si>
     <t>0.2713</t>
   </si>
   <si>
-    <t>0.578940024081043</t>
-  </si>
-  <si>
-    <t>0.9787</t>
-  </si>
-  <si>
-    <t>0.516797032916243</t>
+    <t>0.578940023890018</t>
+  </si>
+  <si>
+    <t>0.9786</t>
+  </si>
+  <si>
+    <t>0.516797034347335</t>
   </si>
   <si>
     <t>-2.7668</t>
   </si>
   <si>
-    <t>0.398416320324485</t>
+    <t>0.398416320866818</t>
   </si>
   <si>
     <t>1.0458</t>
   </si>
   <si>
-    <t>0.340527926493035</t>
+    <t>0.340527925755627</t>
   </si>
   <si>
     <t>-5.9715</t>
   </si>
   <si>
-    <t>0.308155776539955</t>
+    <t>0.30815577615084</t>
   </si>
   <si>
     <t>-0.9401</t>
   </si>
   <si>
-    <t>0.211306377659884</t>
-  </si>
-  <si>
-    <t>0.00878803947647835</t>
+    <t>0.211306376829961</t>
+  </si>
+  <si>
+    <t>0.00878804002164113</t>
   </si>
   <si>
     <t>-0.335</t>
   </si>
   <si>
-    <t>0.332534432214336</t>
+    <t>0.332534432142134</t>
   </si>
   <si>
     <t>0.4055</t>
@@ -1305,9 +1380,6 @@
     <t>0.4088</t>
   </si>
   <si>
-    <t>0.204470606962136</t>
-  </si>
-  <si>
     <t>0.3908</t>
   </si>
   <si>
@@ -1317,7 +1389,7 @@
     <t>-0.6338</t>
   </si>
   <si>
-    <t>0.1344219384112</t>
+    <t>0.134421938324932</t>
   </si>
   <si>
     <t>0.3361</t>
@@ -1326,13 +1398,13 @@
     <t>-0.1477</t>
   </si>
   <si>
-    <t>0.0819221790364765</t>
+    <t>0.0819221789382614</t>
   </si>
   <si>
     <t>-0.7727</t>
   </si>
   <si>
-    <t>0.795910307824998</t>
+    <t>0.795910307144049</t>
   </si>
   <si>
     <t>0.3195</t>
@@ -1344,7 +1416,7 @@
     <t>0.2658</t>
   </si>
   <si>
-    <t>0.629249624529105</t>
+    <t>0.62924962456027</t>
   </si>
   <si>
     <t>0.2526</t>
@@ -1356,7 +1428,7 @@
     <t>2.7943</t>
   </si>
   <si>
-    <t>0.459599719228626</t>
+    <t>0.459599719856648</t>
   </si>
   <si>
     <t>0.2444</t>
@@ -1368,43 +1440,40 @@
     <t>-0.8504</t>
   </si>
   <si>
-    <t>0.418296801901696</t>
+    <t>0.418296801855232</t>
   </si>
   <si>
     <t>-0.2866</t>
   </si>
   <si>
-    <t>0.381223667022331</t>
+    <t>0.38122366709774</t>
   </si>
   <si>
     <t>-1.2198</t>
   </si>
   <si>
-    <t>0.307547517788094</t>
+    <t>0.307547518050519</t>
   </si>
   <si>
     <t>-0.6239</t>
   </si>
   <si>
-    <t>0.146118299128225</t>
+    <t>0.146118298850644</t>
   </si>
   <si>
     <t>0.2461</t>
   </si>
   <si>
-    <t>0.122744821748742</t>
-  </si>
-  <si>
-    <t>0.078916809631379</t>
+    <t>0.122744821959087</t>
+  </si>
+  <si>
+    <t>0.0789168098227858</t>
   </si>
   <si>
     <t>-0.2391</t>
   </si>
   <si>
-    <t>0.947516198379493</t>
-  </si>
-  <si>
-    <t>SOMALIA</t>
+    <t>0.947516199752245</t>
   </si>
   <si>
     <t>0.2918</t>
@@ -1416,7 +1485,7 @@
     <t>-0.0099</t>
   </si>
   <si>
-    <t>0.929633906177306</t>
+    <t>0.92963390549119</t>
   </si>
   <si>
     <t>0.2617</t>
@@ -1428,7 +1497,7 @@
     <t>0.4801</t>
   </si>
   <si>
-    <t>0.833122395463519</t>
+    <t>0.833122396152122</t>
   </si>
   <si>
     <t>0.2372</t>
@@ -1440,76 +1509,109 @@
     <t>-0.5524</t>
   </si>
   <si>
-    <t>0.781526911472891</t>
+    <t>0.781526910770103</t>
   </si>
   <si>
     <t>-0.6208</t>
   </si>
   <si>
-    <t>0.67899033106843</t>
+    <t>0.678990331213726</t>
   </si>
   <si>
     <t>0.7981</t>
   </si>
   <si>
-    <t>0.639015973931643</t>
+    <t>0.639015973954374</t>
   </si>
   <si>
     <t>-0.0135</t>
   </si>
   <si>
-    <t>0.545107606832677</t>
+    <t>0.545107607966232</t>
   </si>
   <si>
     <t>0.3347</t>
   </si>
   <si>
-    <t>0.516503266567578</t>
+    <t>0.516503266444509</t>
   </si>
   <si>
     <t>0.5789</t>
   </si>
   <si>
-    <t>0.440087886108738</t>
+    <t>0.440087887076742</t>
   </si>
   <si>
     <t>-0.87</t>
   </si>
   <si>
-    <t>0.343104198220933</t>
+    <t>0.343104199745883</t>
   </si>
   <si>
     <t>-0.7872</t>
   </si>
   <si>
-    <t>0.322168934357172</t>
+    <t>0.322168934460366</t>
   </si>
   <si>
     <t>-0.1148</t>
   </si>
   <si>
-    <t>0.228531497085019</t>
+    <t>0.228531496710982</t>
   </si>
   <si>
     <t>-0.6541</t>
   </si>
   <si>
-    <t>0.175088908393406</t>
-  </si>
-  <si>
-    <t>0.0192833196031539</t>
+    <t>0.175088908612386</t>
+  </si>
+  <si>
+    <t>0.0192833201017347</t>
   </si>
   <si>
     <t>LIBERIA: No cointegration relationship found for these hyperparameters!</t>
   </si>
   <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>-0.1236</t>
+  </si>
+  <si>
+    <t>-0.116</t>
+  </si>
+  <si>
+    <t>0.3399</t>
+  </si>
+  <si>
+    <t>-0.0976</t>
+  </si>
+  <si>
     <t>LIBYA: No cointegration relationship found for these hyperparameters!</t>
   </si>
   <si>
+    <t>0.1594</t>
+  </si>
+  <si>
+    <t>-0.3262</t>
+  </si>
+  <si>
+    <t>0.1395</t>
+  </si>
+  <si>
+    <t>-0.1668</t>
+  </si>
+  <si>
+    <t>0.1303</t>
+  </si>
+  <si>
+    <t>-0.1599</t>
+  </si>
+  <si>
     <t>-68.695</t>
   </si>
   <si>
-    <t>0.967992968607872</t>
+    <t>0.967992969178435</t>
   </si>
   <si>
     <t>0.3173</t>
@@ -1521,19 +1623,16 @@
     <t>2.1038</t>
   </si>
   <si>
-    <t>0.957812374933329</t>
+    <t>0.957812375382067</t>
   </si>
   <si>
     <t>0.2684</t>
   </si>
   <si>
-    <t>-0.1869</t>
-  </si>
-  <si>
     <t>-0.2904</t>
   </si>
   <si>
-    <t>0.892642463543798</t>
+    <t>0.89264246343874</t>
   </si>
   <si>
     <t>0.255</t>
@@ -1545,25 +1644,25 @@
     <t>43.3023</t>
   </si>
   <si>
-    <t>0.812206414887004</t>
+    <t>0.812206413989822</t>
   </si>
   <si>
     <t>-40.9679</t>
   </si>
   <si>
-    <t>0.800475330982592</t>
+    <t>0.800475331714965</t>
   </si>
   <si>
     <t>54.4966</t>
   </si>
   <si>
-    <t>0.777133039300707</t>
+    <t>0.777133039958959</t>
   </si>
   <si>
     <t>7.8272</t>
   </si>
   <si>
-    <t>0.693455869536685</t>
+    <t>0.69345587134537</t>
   </si>
   <si>
     <t>NIGERIA</t>
@@ -1572,52 +1671,52 @@
     <t>-16.1529</t>
   </si>
   <si>
-    <t>0.604644094324621</t>
+    <t>0.604644096115117</t>
   </si>
   <si>
     <t>17.1351</t>
   </si>
   <si>
-    <t>0.570190729013872</t>
+    <t>0.570190727134374</t>
   </si>
   <si>
     <t>18.6873</t>
   </si>
   <si>
-    <t>0.460976950447665</t>
+    <t>0.460976951402207</t>
   </si>
   <si>
     <t>41.1576</t>
   </si>
   <si>
-    <t>0.404031244991489</t>
+    <t>0.404031246375097</t>
   </si>
   <si>
     <t>18.1669</t>
   </si>
   <si>
-    <t>0.309843422052351</t>
+    <t>0.309843423083872</t>
   </si>
   <si>
     <t>-13.1273</t>
   </si>
   <si>
-    <t>0.274276515075396</t>
+    <t>0.27427651399649</t>
   </si>
   <si>
     <t>-52.5447</t>
   </si>
   <si>
-    <t>0.159871308095851</t>
-  </si>
-  <si>
-    <t>0.0454907258216698</t>
+    <t>0.159871308678524</t>
+  </si>
+  <si>
+    <t>0.0454907270275127</t>
   </si>
   <si>
     <t>10.213</t>
   </si>
   <si>
-    <t>0.980344193733217</t>
+    <t>0.980344193745145</t>
   </si>
   <si>
     <t>0.3661</t>
@@ -1629,7 +1728,7 @@
     <t>1.1364</t>
   </si>
   <si>
-    <t>0.959108526459376</t>
+    <t>0.959108526179564</t>
   </si>
   <si>
     <t>0.3453</t>
@@ -1638,7 +1737,7 @@
     <t>-3.2483</t>
   </si>
   <si>
-    <t>0.947416678103375</t>
+    <t>0.94741667780812</t>
   </si>
   <si>
     <t>0.3207</t>
@@ -1650,43 +1749,43 @@
     <t>3.4808</t>
   </si>
   <si>
-    <t>0.884160196483409</t>
+    <t>0.88416019732159</t>
   </si>
   <si>
     <t>1.434</t>
   </si>
   <si>
-    <t>0.830779519074767</t>
+    <t>0.83077952041507</t>
   </si>
   <si>
     <t>1.5506</t>
   </si>
   <si>
-    <t>0.828797172351813</t>
+    <t>0.82879717304933</t>
   </si>
   <si>
     <t>-0.1171</t>
   </si>
   <si>
-    <t>0.72245189242182</t>
+    <t>0.722451892795593</t>
   </si>
   <si>
     <t>15.6878</t>
   </si>
   <si>
-    <t>0.595722747915595</t>
+    <t>0.595722748100573</t>
   </si>
   <si>
     <t>7.1303</t>
   </si>
   <si>
-    <t>0.534330018006321</t>
+    <t>0.534330018205522</t>
   </si>
   <si>
     <t>-8.422</t>
   </si>
   <si>
-    <t>0.487506195589789</t>
+    <t>0.487506196421085</t>
   </si>
   <si>
     <t>NAMIBIA</t>
@@ -1695,40 +1794,40 @@
     <t>-10.9229</t>
   </si>
   <si>
-    <t>0.458658411570254</t>
+    <t>0.458658412696164</t>
   </si>
   <si>
     <t>-5.5202</t>
   </si>
   <si>
-    <t>0.372284407818094</t>
+    <t>0.3722844080281</t>
   </si>
   <si>
     <t>-17.3145</t>
   </si>
   <si>
-    <t>0.318966776793976</t>
+    <t>0.318966776840405</t>
   </si>
   <si>
     <t>1.2965</t>
   </si>
   <si>
-    <t>0.297042159269617</t>
+    <t>0.297042159468841</t>
   </si>
   <si>
     <t>1.1513</t>
   </si>
   <si>
-    <t>0.208658782377871</t>
-  </si>
-  <si>
-    <t>0.104050472135798</t>
+    <t>0.208658781981897</t>
+  </si>
+  <si>
+    <t>0.104050472908426</t>
   </si>
   <si>
     <t>-0.0481</t>
   </si>
   <si>
-    <t>0.930750589732598</t>
+    <t>0.930750590221383</t>
   </si>
   <si>
     <t>0.3723</t>
@@ -1740,7 +1839,7 @@
     <t>2.1754</t>
   </si>
   <si>
-    <t>0.917054788964971</t>
+    <t>0.917054789127084</t>
   </si>
   <si>
     <t>0.2594</t>
@@ -1752,7 +1851,7 @@
     <t>-1.0391</t>
   </si>
   <si>
-    <t>0.858721888354455</t>
+    <t>0.858721890098339</t>
   </si>
   <si>
     <t>0.256</t>
@@ -1764,76 +1863,76 @@
     <t>0.9443</t>
   </si>
   <si>
-    <t>0.803258217119875</t>
+    <t>0.80325821996967</t>
   </si>
   <si>
     <t>-1.7574</t>
   </si>
   <si>
-    <t>0.724822583474881</t>
+    <t>0.72482258325776</t>
   </si>
   <si>
     <t>-0.6994</t>
   </si>
   <si>
-    <t>0.654934073343138</t>
+    <t>0.65493407548049</t>
   </si>
   <si>
     <t>-0.3139</t>
   </si>
   <si>
-    <t>0.64121369110323</t>
+    <t>0.641213691874796</t>
   </si>
   <si>
     <t>0.8045</t>
   </si>
   <si>
-    <t>0.591763607720654</t>
+    <t>0.591763608639217</t>
   </si>
   <si>
     <t>0.6429</t>
   </si>
   <si>
-    <t>0.509928385707066</t>
+    <t>0.509928387253631</t>
   </si>
   <si>
     <t>-1.8382</t>
   </si>
   <si>
-    <t>0.442869895936807</t>
+    <t>0.442869894897912</t>
   </si>
   <si>
     <t>1.7718</t>
   </si>
   <si>
-    <t>0.391468122952081</t>
+    <t>0.39146812360368</t>
   </si>
   <si>
     <t>-1.5859</t>
   </si>
   <si>
-    <t>0.317757675522862</t>
+    <t>0.317757675565752</t>
   </si>
   <si>
     <t>-0.1327</t>
   </si>
   <si>
-    <t>0.293384499757072</t>
+    <t>0.293384498371405</t>
   </si>
   <si>
     <t>0.6943</t>
   </si>
   <si>
-    <t>0.212321738230693</t>
-  </si>
-  <si>
-    <t>0.0264014514285831</t>
+    <t>0.21232173817611</t>
+  </si>
+  <si>
+    <t>0.0264014507383731</t>
   </si>
   <si>
     <t>0.1257</t>
   </si>
   <si>
-    <t>0.996139662940169</t>
+    <t>0.996139662978592</t>
   </si>
   <si>
     <t>0.3345</t>
@@ -1845,7 +1944,7 @@
     <t>-1.69</t>
   </si>
   <si>
-    <t>0.984830598218106</t>
+    <t>0.984830598562872</t>
   </si>
   <si>
     <t>0.3023</t>
@@ -1857,7 +1956,7 @@
     <t>0.1201</t>
   </si>
   <si>
-    <t>0.965703912908038</t>
+    <t>0.965703912046624</t>
   </si>
   <si>
     <t>0.2834</t>
@@ -1869,94 +1968,94 @@
     <t>-0.0934</t>
   </si>
   <si>
-    <t>0.955018607744352</t>
+    <t>0.955018608279751</t>
   </si>
   <si>
     <t>3.4834</t>
   </si>
   <si>
-    <t>0.937496934402336</t>
+    <t>0.937496934087877</t>
   </si>
   <si>
     <t>-0.2002</t>
   </si>
   <si>
-    <t>0.909208577704636</t>
+    <t>0.909208577066649</t>
   </si>
   <si>
     <t>0.4066</t>
   </si>
   <si>
-    <t>0.818266758908021</t>
+    <t>0.818266758858263</t>
   </si>
   <si>
     <t>0.1001</t>
   </si>
   <si>
-    <t>0.781449565590471</t>
+    <t>0.781449565293597</t>
   </si>
   <si>
     <t>0.4253</t>
   </si>
   <si>
-    <t>0.723729041514423</t>
+    <t>0.723729042874478</t>
   </si>
   <si>
     <t>0.3063</t>
   </si>
   <si>
-    <t>0.719161832567206</t>
+    <t>0.719161834449949</t>
   </si>
   <si>
     <t>1.6988</t>
   </si>
   <si>
-    <t>0.644797419608002</t>
+    <t>0.644797418923164</t>
   </si>
   <si>
     <t>-0.423</t>
   </si>
   <si>
-    <t>0.598515264912112</t>
+    <t>0.598515265891415</t>
   </si>
   <si>
     <t>0.2164</t>
   </si>
   <si>
-    <t>0.462893340860024</t>
+    <t>0.462893336881318</t>
   </si>
   <si>
     <t>-0.3325</t>
   </si>
   <si>
-    <t>0.39034649217864</t>
+    <t>0.390346489238157</t>
   </si>
   <si>
     <t>-2.9504</t>
   </si>
   <si>
-    <t>0.332701736486129</t>
+    <t>0.332701736721219</t>
   </si>
   <si>
     <t>-0.993</t>
   </si>
   <si>
-    <t>0.243074927961967</t>
+    <t>0.243074927430298</t>
   </si>
   <si>
     <t>-0.287</t>
   </si>
   <si>
-    <t>0.202606269316656</t>
-  </si>
-  <si>
-    <t>0.00194019486235508</t>
+    <t>0.202606269305009</t>
+  </si>
+  <si>
+    <t>0.00194019495363557</t>
   </si>
   <si>
     <t>0.1009</t>
   </si>
   <si>
-    <t>0.803506088122671</t>
+    <t>0.80350608748442</t>
   </si>
   <si>
     <t>0.3225</t>
@@ -1968,7 +2067,7 @@
     <t>0.1336</t>
   </si>
   <si>
-    <t>0.746704446725256</t>
+    <t>0.746704447381185</t>
   </si>
   <si>
     <t>0.2868</t>
@@ -1980,7 +2079,7 @@
     <t>2.2463</t>
   </si>
   <si>
-    <t>0.600687434031464</t>
+    <t>0.60068743395432</t>
   </si>
   <si>
     <t>0.2601</t>
@@ -1992,46 +2091,46 @@
     <t>1.0288</t>
   </si>
   <si>
-    <t>0.50569923502659</t>
+    <t>0.505699235593823</t>
   </si>
   <si>
     <t>0.2717</t>
   </si>
   <si>
-    <t>0.390668468825222</t>
+    <t>0.390668469152911</t>
   </si>
   <si>
     <t>-2.1841</t>
   </si>
   <si>
-    <t>0.322131475483212</t>
+    <t>0.32213147540078</t>
   </si>
   <si>
     <t>-1.5374</t>
   </si>
   <si>
-    <t>0.272906331732735</t>
+    <t>0.27290633171502</t>
   </si>
   <si>
     <t>0.2433</t>
   </si>
   <si>
-    <t>0.209727431192023</t>
+    <t>0.209727430789804</t>
   </si>
   <si>
     <t>-1.0051</t>
   </si>
   <si>
-    <t>0.148735883070347</t>
-  </si>
-  <si>
-    <t>0.0746238178921426</t>
+    <t>0.148735882744809</t>
+  </si>
+  <si>
+    <t>0.0746238179849761</t>
   </si>
   <si>
     <t>2.2786</t>
   </si>
   <si>
-    <t>0.864147735164524</t>
+    <t>0.864147735803482</t>
   </si>
   <si>
     <t>0.2769</t>
@@ -2043,7 +2142,7 @@
     <t>1.0607</t>
   </si>
   <si>
-    <t>0.789610121667336</t>
+    <t>0.789610120882432</t>
   </si>
   <si>
     <t>0.2738</t>
@@ -2055,7 +2154,7 @@
     <t>1.0338</t>
   </si>
   <si>
-    <t>0.679336911011208</t>
+    <t>0.679336910543125</t>
   </si>
   <si>
     <t>0.2728</t>
@@ -2067,58 +2166,58 @@
     <t>6.1456</t>
   </si>
   <si>
-    <t>0.636316188949372</t>
+    <t>0.636316188709348</t>
   </si>
   <si>
     <t>-3.8526</t>
   </si>
   <si>
-    <t>0.549503939126055</t>
+    <t>0.549503940959327</t>
   </si>
   <si>
     <t>-9.7332</t>
   </si>
   <si>
-    <t>0.444882500647407</t>
+    <t>0.444882501306741</t>
   </si>
   <si>
     <t>-2.3929</t>
   </si>
   <si>
-    <t>0.391700507362758</t>
+    <t>0.391700506687055</t>
   </si>
   <si>
     <t>0.4225</t>
   </si>
   <si>
-    <t>0.330796430246974</t>
+    <t>0.330796429880195</t>
   </si>
   <si>
     <t>2.5423</t>
   </si>
   <si>
-    <t>0.280953068309615</t>
+    <t>0.280953068874773</t>
   </si>
   <si>
     <t>2.7082</t>
   </si>
   <si>
-    <t>0.269437176413012</t>
+    <t>0.26943717640768</t>
   </si>
   <si>
     <t>3.6958</t>
   </si>
   <si>
-    <t>0.183574548657682</t>
-  </si>
-  <si>
-    <t>0.0892592407887211</t>
+    <t>0.183574549000032</t>
+  </si>
+  <si>
+    <t>0.0892592409964994</t>
   </si>
   <si>
     <t>-0.0897</t>
   </si>
   <si>
-    <t>0.241280160179252</t>
+    <t>0.241280160023317</t>
   </si>
   <si>
     <t>0.3859</t>
@@ -2127,7 +2226,7 @@
     <t>-2.8408</t>
   </si>
   <si>
-    <t>0.0766643505265695</t>
+    <t>0.0766643504437651</t>
   </si>
   <si>
     <t>0.3635</t>
@@ -2136,7 +2235,7 @@
     <t>-0.3287</t>
   </si>
   <si>
-    <t>0.000469403876359964</t>
+    <t>0.000469403896157433</t>
   </si>
   <si>
     <t>0.3474</t>
@@ -2148,7 +2247,7 @@
     <t>11.0618</t>
   </si>
   <si>
-    <t>0.697318372087822</t>
+    <t>0.697318370990124</t>
   </si>
   <si>
     <t>0.4664</t>
@@ -2160,7 +2259,7 @@
     <t>3.0629</t>
   </si>
   <si>
-    <t>0.537694672790436</t>
+    <t>0.53769467299132</t>
   </si>
   <si>
     <t>0.4114</t>
@@ -2172,7 +2271,7 @@
     <t>-1.8025</t>
   </si>
   <si>
-    <t>0.333987658164922</t>
+    <t>0.333987658633555</t>
   </si>
   <si>
     <t>0.3835</t>
@@ -2184,28 +2283,28 @@
     <t>12.8291</t>
   </si>
   <si>
-    <t>0.270368627397707</t>
+    <t>0.270368627829239</t>
   </si>
   <si>
     <t>-30.4863</t>
   </si>
   <si>
-    <t>0.218090411945417</t>
+    <t>0.218090412361456</t>
   </si>
   <si>
     <t>-0.1106</t>
   </si>
   <si>
-    <t>0.147172540066659</t>
-  </si>
-  <si>
-    <t>0.00647646830905153</t>
+    <t>0.147172540136642</t>
+  </si>
+  <si>
+    <t>0.00647646834020854</t>
   </si>
   <si>
     <t>-9.5737</t>
   </si>
   <si>
-    <t>0.73666588452755</t>
+    <t>0.736665884157159</t>
   </si>
   <si>
     <t>0.408</t>
@@ -2217,7 +2316,7 @@
     <t>1.6457</t>
   </si>
   <si>
-    <t>0.58404699341148</t>
+    <t>0.584046993529988</t>
   </si>
   <si>
     <t>0.3229</t>
@@ -2229,7 +2328,7 @@
     <t>1e-04</t>
   </si>
   <si>
-    <t>0.385037069236341</t>
+    <t>0.385037069238488</t>
   </si>
   <si>
     <t>0.2994</t>
@@ -2241,28 +2340,28 @@
     <t>-0.7893</t>
   </si>
   <si>
-    <t>0.352392079080146</t>
+    <t>0.352392079034503</t>
   </si>
   <si>
     <t>0.2127</t>
   </si>
   <si>
-    <t>0.149092814952308</t>
+    <t>0.149092814352555</t>
   </si>
   <si>
     <t>7.6027</t>
   </si>
   <si>
-    <t>0.11633729413942</t>
-  </si>
-  <si>
-    <t>1.22157790698304e-06</t>
+    <t>0.116337294194424</t>
+  </si>
+  <si>
+    <t>1.22157871298868e-06</t>
   </si>
   <si>
     <t>-2.3834</t>
   </si>
   <si>
-    <t>0.32722996844429</t>
+    <t>0.327229968498026</t>
   </si>
   <si>
     <t>0.3134</t>
@@ -2274,7 +2373,7 @@
     <t>3.0164</t>
   </si>
   <si>
-    <t>0.266624440704077</t>
+    <t>0.266624440907632</t>
   </si>
   <si>
     <t>0.2607</t>
@@ -2286,7 +2385,7 @@
     <t>1.0331</t>
   </si>
   <si>
-    <t>0.218767721577317</t>
+    <t>0.218767721094231</t>
   </si>
   <si>
     <t>-0.1733</t>
@@ -2295,16 +2394,16 @@
     <t>-3.6805</t>
   </si>
   <si>
-    <t>0.06145140172441</t>
-  </si>
-  <si>
-    <t>0.0111603378175269</t>
+    <t>0.0614514016918544</t>
+  </si>
+  <si>
+    <t>0.0111603378794691</t>
   </si>
   <si>
     <t>-2.4284</t>
   </si>
   <si>
-    <t>0.953697064620526</t>
+    <t>0.953697063572344</t>
   </si>
   <si>
     <t>0.6219</t>
@@ -2316,7 +2415,7 @@
     <t>0.0621</t>
   </si>
   <si>
-    <t>0.898340326056192</t>
+    <t>0.898340324913936</t>
   </si>
   <si>
     <t>0.5801</t>
@@ -2328,7 +2427,7 @@
     <t>-2.2214</t>
   </si>
   <si>
-    <t>0.830207447458105</t>
+    <t>0.83020744746362</t>
   </si>
   <si>
     <t>0.3524</t>
@@ -2337,70 +2436,70 @@
     <t>1.5998</t>
   </si>
   <si>
-    <t>0.815237647993383</t>
+    <t>0.81523764619333</t>
   </si>
   <si>
     <t>-0.8796</t>
   </si>
   <si>
-    <t>0.72862442265736</t>
+    <t>0.72862442261775</t>
   </si>
   <si>
     <t>-2.2844</t>
   </si>
   <si>
-    <t>0.671658813746186</t>
+    <t>0.671658813897128</t>
   </si>
   <si>
     <t>5.4957</t>
   </si>
   <si>
-    <t>0.595365804720672</t>
+    <t>0.59536580451859</t>
   </si>
   <si>
     <t>-0.7741</t>
   </si>
   <si>
-    <t>0.501754351970945</t>
+    <t>0.50175435287222</t>
   </si>
   <si>
     <t>1.6245</t>
   </si>
   <si>
-    <t>0.45577415857116</t>
+    <t>0.455774160138068</t>
   </si>
   <si>
     <t>-0.7116</t>
   </si>
   <si>
-    <t>0.414585244675122</t>
+    <t>0.414585245697169</t>
   </si>
   <si>
     <t>1.6007</t>
   </si>
   <si>
-    <t>0.392069057517736</t>
+    <t>0.392069057951581</t>
   </si>
   <si>
     <t>-2.9477</t>
   </si>
   <si>
-    <t>0.223643037774804</t>
+    <t>0.223643036019767</t>
   </si>
   <si>
     <t>-0.6496</t>
   </si>
   <si>
-    <t>0.189181755996151</t>
-  </si>
-  <si>
-    <t>0.0581240734201269</t>
+    <t>0.189181755777214</t>
+  </si>
+  <si>
+    <t>0.0581240739682732</t>
   </si>
   <si>
     <t>-1.2969</t>
   </si>
   <si>
-    <t>0.237790549025282</t>
+    <t>0.237790548949877</t>
   </si>
   <si>
     <t>0.527</t>
@@ -2409,7 +2508,7 @@
     <t>-0.6354</t>
   </si>
   <si>
-    <t>0.0874908105543432</t>
+    <t>0.0874908104029948</t>
   </si>
   <si>
     <t>0.4963</t>
@@ -2427,7 +2526,7 @@
     <t>3.6472</t>
   </si>
   <si>
-    <t>0.789614352365515</t>
+    <t>0.789614353483525</t>
   </si>
   <si>
     <t>0.272</t>
@@ -2439,7 +2538,7 @@
     <t>-5.0386</t>
   </si>
   <si>
-    <t>0.70346432468635</t>
+    <t>0.703464324664787</t>
   </si>
   <si>
     <t>0.2534</t>
@@ -2451,7 +2550,7 @@
     <t>-0.4039</t>
   </si>
   <si>
-    <t>0.594092862404461</t>
+    <t>0.594092863263623</t>
   </si>
   <si>
     <t>0.2504</t>
@@ -2463,52 +2562,52 @@
     <t>-0.3343</t>
   </si>
   <si>
-    <t>0.509423118972331</t>
+    <t>0.509423119273854</t>
   </si>
   <si>
     <t>0.5142</t>
   </si>
   <si>
-    <t>0.470347878184139</t>
+    <t>0.470347880404159</t>
   </si>
   <si>
     <t>-1.808</t>
   </si>
   <si>
-    <t>0.395662533599439</t>
+    <t>0.395662531475116</t>
   </si>
   <si>
     <t>0.4271</t>
   </si>
   <si>
-    <t>0.282725125050976</t>
+    <t>0.282725125803934</t>
   </si>
   <si>
     <t>1.5767</t>
   </si>
   <si>
-    <t>0.253691775456686</t>
+    <t>0.253691774981956</t>
   </si>
   <si>
     <t>3.2514</t>
   </si>
   <si>
-    <t>0.21800979566026</t>
+    <t>0.218009794603328</t>
   </si>
   <si>
     <t>-2.318</t>
   </si>
   <si>
-    <t>0.152020013203818</t>
-  </si>
-  <si>
-    <t>0.0334234569974421</t>
+    <t>0.152020012201586</t>
+  </si>
+  <si>
+    <t>0.0334234566335456</t>
   </si>
   <si>
     <t>0.8963</t>
   </si>
   <si>
-    <t>0.86414773516228</t>
+    <t>0.864147735819111</t>
   </si>
   <si>
     <t>0.2789</t>
@@ -2520,7 +2619,7 @@
     <t>0.4172</t>
   </si>
   <si>
-    <t>0.789610121633194</t>
+    <t>0.789610120849646</t>
   </si>
   <si>
     <t>0.2374</t>
@@ -2532,7 +2631,7 @@
     <t>0.4067</t>
   </si>
   <si>
-    <t>0.679336910939173</t>
+    <t>0.679336910476953</t>
   </si>
   <si>
     <t>0.2197</t>
@@ -2544,58 +2643,58 @@
     <t>2.4173</t>
   </si>
   <si>
-    <t>0.636316189001354</t>
+    <t>0.636316188717992</t>
   </si>
   <si>
     <t>-1.5154</t>
   </si>
   <si>
-    <t>0.549503939124291</t>
+    <t>0.549503940960648</t>
   </si>
   <si>
     <t>-3.8285</t>
   </si>
   <si>
-    <t>0.444882500624663</t>
+    <t>0.444882501280521</t>
   </si>
   <si>
     <t>-0.9412</t>
   </si>
   <si>
-    <t>0.391700507371563</t>
+    <t>0.391700506686188</t>
   </si>
   <si>
     <t>0.1662</t>
   </si>
   <si>
-    <t>0.330796430246202</t>
+    <t>0.330796429878462</t>
   </si>
   <si>
     <t>0.3933</t>
   </si>
   <si>
-    <t>0.280953068311351</t>
+    <t>0.280953068871772</t>
   </si>
   <si>
     <t>1.0653</t>
   </si>
   <si>
-    <t>0.269437176420793</t>
+    <t>0.269437176396401</t>
   </si>
   <si>
     <t>1.4537</t>
   </si>
   <si>
-    <t>0.183574548658937</t>
-  </si>
-  <si>
-    <t>0.0892592407894863</t>
+    <t>0.183574548997422</t>
+  </si>
+  <si>
+    <t>0.0892592409968183</t>
   </si>
   <si>
     <t>-4.8007</t>
   </si>
   <si>
-    <t>0.261446037771469</t>
+    <t>0.261446037467417</t>
   </si>
   <si>
     <t>0.317</t>
@@ -2607,7 +2706,7 @@
     <t>1.691</t>
   </si>
   <si>
-    <t>0.169866669007885</t>
+    <t>0.169866668562</t>
   </si>
   <si>
     <t>0.2492</t>
@@ -2616,7 +2715,7 @@
     <t>-0.1518</t>
   </si>
   <si>
-    <t>0.000258453459113406</t>
+    <t>0.000258453457697261</t>
   </si>
   <si>
     <t>0.2383</t>
@@ -2628,7 +2727,7 @@
     <t>1.7964</t>
   </si>
   <si>
-    <t>0.703947014160005</t>
+    <t>0.703947013936393</t>
   </si>
   <si>
     <t>-0.28</t>
@@ -2637,7 +2736,7 @@
     <t>0.0606</t>
   </si>
   <si>
-    <t>0.613919913562886</t>
+    <t>0.613919913757999</t>
   </si>
   <si>
     <t>0.274</t>
@@ -2649,7 +2748,7 @@
     <t>-0.0387</t>
   </si>
   <si>
-    <t>0.37382977081966</t>
+    <t>0.373829770184261</t>
   </si>
   <si>
     <t>0.2183</t>
@@ -2661,34 +2760,34 @@
     <t>24.5713</t>
   </si>
   <si>
-    <t>0.354418239639288</t>
+    <t>0.354418239433188</t>
   </si>
   <si>
     <t>-8.4077</t>
   </si>
   <si>
-    <t>0.226726870082623</t>
+    <t>0.226726869965603</t>
   </si>
   <si>
     <t>-10.5229</t>
   </si>
   <si>
-    <t>0.177921783257098</t>
+    <t>0.177921783352101</t>
   </si>
   <si>
     <t>-9.6302</t>
   </si>
   <si>
-    <t>0.111628266484844</t>
-  </si>
-  <si>
-    <t>0.0162100118742609</t>
+    <t>0.111628266191443</t>
+  </si>
+  <si>
+    <t>0.0162100119647733</t>
   </si>
   <si>
     <t>-0.3855</t>
   </si>
   <si>
-    <t>0.72618371727828</t>
+    <t>0.726183716527253</t>
   </si>
   <si>
     <t>0.4182</t>
@@ -2700,7 +2799,7 @@
     <t>-0.0681</t>
   </si>
   <si>
-    <t>0.579392243997515</t>
+    <t>0.579392243989945</t>
   </si>
   <si>
     <t>0.2807</t>
@@ -2712,7 +2811,7 @@
     <t>-0.0342</t>
   </si>
   <si>
-    <t>0.441717739730494</t>
+    <t>0.441717739809216</t>
   </si>
   <si>
     <t>0.251</t>
@@ -2724,40 +2823,40 @@
     <t>0.028</t>
   </si>
   <si>
-    <t>0.356355142614971</t>
+    <t>0.356355142310161</t>
   </si>
   <si>
     <t>-0.4295</t>
   </si>
   <si>
-    <t>0.265781645302254</t>
+    <t>0.26578164554922</t>
   </si>
   <si>
     <t>0.0188</t>
   </si>
   <si>
-    <t>0.204166263681112</t>
+    <t>0.20416626378607</t>
   </si>
   <si>
     <t>-0.0035</t>
   </si>
   <si>
-    <t>0.180171803697352</t>
+    <t>0.180171804040002</t>
   </si>
   <si>
     <t>0.0506</t>
   </si>
   <si>
-    <t>0.114729144318132</t>
-  </si>
-  <si>
-    <t>0.00310359879726085</t>
+    <t>0.114729144528378</t>
+  </si>
+  <si>
+    <t>0.00310359874062704</t>
   </si>
   <si>
     <t>2.1388</t>
   </si>
   <si>
-    <t>0.483878148344838</t>
+    <t>0.483878149484511</t>
   </si>
   <si>
     <t>0.3762</t>
@@ -2769,7 +2868,7 @@
     <t>-4.7723</t>
   </si>
   <si>
-    <t>0.431299686694147</t>
+    <t>0.431299686475227</t>
   </si>
   <si>
     <t>0.3112</t>
@@ -2781,7 +2880,7 @@
     <t>0.0423</t>
   </si>
   <si>
-    <t>0.342781474780481</t>
+    <t>0.342781474226117</t>
   </si>
   <si>
     <t>0.2625</t>
@@ -2793,28 +2892,28 @@
     <t>-0.2186</t>
   </si>
   <si>
-    <t>0.280627237188741</t>
+    <t>0.280627237618748</t>
   </si>
   <si>
     <t>-0.1154</t>
   </si>
   <si>
-    <t>0.196430251886895</t>
+    <t>0.19643025200284</t>
   </si>
   <si>
     <t>3.4338</t>
   </si>
   <si>
-    <t>0.108746793646048</t>
-  </si>
-  <si>
-    <t>0.00423313458939609</t>
+    <t>0.108746793620926</t>
+  </si>
+  <si>
+    <t>0.00423313453589926</t>
   </si>
   <si>
     <t>0.8797</t>
   </si>
   <si>
-    <t>0.508999531715773</t>
+    <t>0.508999531839024</t>
   </si>
   <si>
     <t>0.4529</t>
@@ -2826,7 +2925,7 @@
     <t>-1.1591</t>
   </si>
   <si>
-    <t>0.399951953080728</t>
+    <t>0.399951951786963</t>
   </si>
   <si>
     <t>0.4148</t>
@@ -2838,7 +2937,7 @@
     <t>0.26</t>
   </si>
   <si>
-    <t>0.353994386265075</t>
+    <t>0.353994385499128</t>
   </si>
   <si>
     <t>0.3992</t>
@@ -2850,28 +2949,28 @@
     <t>-1.6356</t>
   </si>
   <si>
-    <t>0.32054471774924</t>
+    <t>0.320544717674038</t>
   </si>
   <si>
     <t>3.8614</t>
   </si>
   <si>
-    <t>0.215694662513475</t>
+    <t>0.215694661869371</t>
   </si>
   <si>
     <t>-2.1155</t>
   </si>
   <si>
-    <t>0.0835965902062765</t>
-  </si>
-  <si>
-    <t>0.0474125545507483</t>
-  </si>
-  <si>
-    <t>1.4656</t>
-  </si>
-  <si>
-    <t>1.00000000024475</t>
+    <t>0.0835965902554094</t>
+  </si>
+  <si>
+    <t>0.0474125547978514</t>
+  </si>
+  <si>
+    <t>0.4609</t>
+  </si>
+  <si>
+    <t>1.00000000036978</t>
   </si>
   <si>
     <t>0.3787</t>
@@ -2880,10 +2979,10 @@
     <t>-0.3164</t>
   </si>
   <si>
-    <t>-0.9995</t>
-  </si>
-  <si>
-    <t>0.99999999990417</t>
+    <t>-0.6853</t>
+  </si>
+  <si>
+    <t>1.00000000002503</t>
   </si>
   <si>
     <t>0.3567</t>
@@ -2892,10 +2991,10 @@
     <t>-0.2584</t>
   </si>
   <si>
-    <t>-0.2383</t>
-  </si>
-  <si>
-    <t>0.999999999792453</t>
+    <t>-0.1133</t>
+  </si>
+  <si>
+    <t>0.99999999985531</t>
   </si>
   <si>
     <t>0.3421</t>
@@ -2904,103 +3003,103 @@
     <t>-0.2145</t>
   </si>
   <si>
-    <t>-0.6815</t>
-  </si>
-  <si>
-    <t>0.998823550109264</t>
-  </si>
-  <si>
-    <t>-3.2108</t>
-  </si>
-  <si>
-    <t>0.990597783900846</t>
-  </si>
-  <si>
-    <t>2.902</t>
-  </si>
-  <si>
-    <t>0.98456329299874</t>
-  </si>
-  <si>
-    <t>0.4608</t>
-  </si>
-  <si>
-    <t>0.95289316416164</t>
-  </si>
-  <si>
-    <t>-0.407</t>
-  </si>
-  <si>
-    <t>0.913403799747962</t>
-  </si>
-  <si>
-    <t>1.1375</t>
-  </si>
-  <si>
-    <t>0.87204696177618</t>
-  </si>
-  <si>
-    <t>2.5208</t>
-  </si>
-  <si>
-    <t>0.777861065113917</t>
-  </si>
-  <si>
-    <t>0.4752</t>
-  </si>
-  <si>
-    <t>0.739583265341809</t>
-  </si>
-  <si>
-    <t>0.617</t>
-  </si>
-  <si>
-    <t>0.690316515414437</t>
-  </si>
-  <si>
-    <t>-3.8656</t>
-  </si>
-  <si>
-    <t>0.653127807687846</t>
-  </si>
-  <si>
-    <t>0.1778</t>
-  </si>
-  <si>
-    <t>0.584545076781971</t>
-  </si>
-  <si>
-    <t>-1.6678</t>
-  </si>
-  <si>
-    <t>0.516870088861914</t>
-  </si>
-  <si>
-    <t>-0.3901</t>
-  </si>
-  <si>
-    <t>0.48518257152408</t>
-  </si>
-  <si>
-    <t>-3.7261</t>
-  </si>
-  <si>
-    <t>0.324193941188064</t>
-  </si>
-  <si>
-    <t>2.1104</t>
-  </si>
-  <si>
-    <t>0.201257030709355</t>
-  </si>
-  <si>
-    <t>0.0606636627078354</t>
+    <t>-0.4813</t>
+  </si>
+  <si>
+    <t>0.998823550062202</t>
+  </si>
+  <si>
+    <t>-1.4101</t>
+  </si>
+  <si>
+    <t>0.990597783472708</t>
+  </si>
+  <si>
+    <t>0.6606</t>
+  </si>
+  <si>
+    <t>0.984563293305117</t>
+  </si>
+  <si>
+    <t>0.6385</t>
+  </si>
+  <si>
+    <t>0.952893163776966</t>
+  </si>
+  <si>
+    <t>-0.4483</t>
+  </si>
+  <si>
+    <t>0.913403799460772</t>
+  </si>
+  <si>
+    <t>0.1332</t>
+  </si>
+  <si>
+    <t>0.87204696022132</t>
+  </si>
+  <si>
+    <t>0.5113</t>
+  </si>
+  <si>
+    <t>0.777861061737579</t>
+  </si>
+  <si>
+    <t>0.7477</t>
+  </si>
+  <si>
+    <t>0.739583263755983</t>
+  </si>
+  <si>
+    <t>0.6735</t>
+  </si>
+  <si>
+    <t>0.690316514650889</t>
+  </si>
+  <si>
+    <t>-1.1577</t>
+  </si>
+  <si>
+    <t>0.653127809559587</t>
+  </si>
+  <si>
+    <t>0.4392</t>
+  </si>
+  <si>
+    <t>0.584545078907567</t>
+  </si>
+  <si>
+    <t>-1.2398</t>
+  </si>
+  <si>
+    <t>0.516870089886247</t>
+  </si>
+  <si>
+    <t>-0.4846</t>
+  </si>
+  <si>
+    <t>0.485182572545565</t>
+  </si>
+  <si>
+    <t>-1.9401</t>
+  </si>
+  <si>
+    <t>0.324193941158372</t>
+  </si>
+  <si>
+    <t>1.07</t>
+  </si>
+  <si>
+    <t>0.201257030820078</t>
+  </si>
+  <si>
+    <t>0.0606636634648691</t>
   </si>
   <si>
     <t>2.1946</t>
   </si>
   <si>
-    <t>0.877471834374306</t>
+    <t>0.877471834345639</t>
   </si>
   <si>
     <t>0.2928</t>
@@ -3012,7 +3111,7 @@
     <t>2.8745</t>
   </si>
   <si>
-    <t>0.783278943110714</t>
+    <t>0.783278942607372</t>
   </si>
   <si>
     <t>0.2387</t>
@@ -3024,7 +3123,7 @@
     <t>12.679</t>
   </si>
   <si>
-    <t>0.684509298281623</t>
+    <t>0.684509298431473</t>
   </si>
   <si>
     <t>0.2286</t>
@@ -3036,49 +3135,49 @@
     <t>10.147</t>
   </si>
   <si>
-    <t>0.527995088535748</t>
+    <t>0.527995088914225</t>
   </si>
   <si>
     <t>-17.2094</t>
   </si>
   <si>
-    <t>0.43795291510037</t>
+    <t>0.437952915670359</t>
   </si>
   <si>
     <t>-1.692</t>
   </si>
   <si>
-    <t>0.410714636528315</t>
+    <t>0.410714635530365</t>
   </si>
   <si>
     <t>3.1614</t>
   </si>
   <si>
-    <t>0.29919169019012</t>
+    <t>0.299191690501445</t>
   </si>
   <si>
     <t>-4.472</t>
   </si>
   <si>
-    <t>0.214881170371169</t>
+    <t>0.214881170476186</t>
   </si>
   <si>
     <t>-0.3784</t>
   </si>
   <si>
-    <t>0.15946336183134</t>
+    <t>0.159463361740129</t>
   </si>
   <si>
     <t>0.822</t>
   </si>
   <si>
-    <t>0.0797443004253457</t>
-  </si>
-  <si>
-    <t>0.0623317695790412</t>
-  </si>
-  <si>
-    <t>0.410051401158257</t>
+    <t>0.0797443006523858</t>
+  </si>
+  <si>
+    <t>0.0623317697022526</t>
+  </si>
+  <si>
+    <t>0.410051401838113</t>
   </si>
   <si>
     <t>0.4761</t>
@@ -3090,7 +3189,7 @@
     <t>-1.48</t>
   </si>
   <si>
-    <t>0.202463169551762</t>
+    <t>0.202463169384053</t>
   </si>
   <si>
     <t>0.3169</t>
@@ -3102,7 +3201,7 @@
     <t>-1.0895</t>
   </si>
   <si>
-    <t>0.183666085247439</t>
+    <t>0.183666084981375</t>
   </si>
   <si>
     <t>0.2309</t>
@@ -3114,16 +3213,16 @@
     <t>0.4982</t>
   </si>
   <si>
-    <t>0.0925171021195954</t>
-  </si>
-  <si>
-    <t>0.0258423217512353</t>
+    <t>0.0925171019751082</t>
+  </si>
+  <si>
+    <t>0.0258423217023509</t>
   </si>
   <si>
     <t>-0.4238</t>
   </si>
   <si>
-    <t>0.426063359403385</t>
+    <t>0.426063359301879</t>
   </si>
   <si>
     <t>0.541</t>
@@ -3135,7 +3234,7 @@
     <t>-0.2463</t>
   </si>
   <si>
-    <t>0.267562295891881</t>
+    <t>0.267562295480566</t>
   </si>
   <si>
     <t>-0.2707</t>
@@ -3144,7 +3243,7 @@
     <t>-0.2385</t>
   </si>
   <si>
-    <t>0.221604282485645</t>
+    <t>0.221604282238014</t>
   </si>
   <si>
     <t>0.4258</t>
@@ -3153,13 +3252,31 @@
     <t>-0.2152</t>
   </si>
   <si>
-    <t>0.125047633025905</t>
-  </si>
-  <si>
-    <t>0.0404130508619027</t>
+    <t>0.125047632877251</t>
+  </si>
+  <si>
+    <t>0.0404130509193768</t>
   </si>
   <si>
     <t>ZIMBABWE: No cointegration relationship found for these hyperparameters!</t>
+  </si>
+  <si>
+    <t>0.2894</t>
+  </si>
+  <si>
+    <t>-0.3755</t>
+  </si>
+  <si>
+    <t>0.2318</t>
+  </si>
+  <si>
+    <t>-0.3663</t>
+  </si>
+  <si>
+    <t>0.213</t>
+  </si>
+  <si>
+    <t>-0.2927</t>
   </si>
 </sst>
 </file>
@@ -3267,6 +3384,141 @@
       <c r="A1" t="s">
         <v>208</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -3286,10 +3538,10 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C1" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="D1" t="s">
         <v>80</v>
@@ -3303,13 +3555,13 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C2" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="D2" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
@@ -3354,16 +3606,16 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C5" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="D5" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="E5" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6">
@@ -3422,13 +3674,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C9" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="D9" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E9" t="s">
         <v>1</v>
@@ -3490,13 +3742,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C13" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="D13" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="E13" t="s">
         <v>1</v>
@@ -3588,13 +3840,13 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="D2" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
@@ -3639,16 +3891,16 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="C5" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="D5" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="E5" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6">
@@ -3707,10 +3959,10 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C9" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D9" t="s">
         <v>176</v>
@@ -3775,13 +4027,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="C13" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="D13" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="E13" t="s">
         <v>1</v>
@@ -3853,7 +4105,142 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>236</v>
+        <v>244</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3894,16 +4281,16 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="C2" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="D2" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="E2" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
@@ -3954,19 +4341,19 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="C5" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="D5" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="E5" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="F5" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6">
@@ -4034,13 +4421,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="C9" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="D9" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="E9" t="s">
         <v>1</v>
@@ -4114,13 +4501,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="C13" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="D13" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="E13" t="s">
         <v>1</v>
@@ -4224,13 +4611,13 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="C2" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="D2" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
@@ -4275,16 +4662,16 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="C5" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="D5" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="E5" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6">
@@ -4343,13 +4730,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="C9" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="D9" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="E9" t="s">
         <v>1</v>
@@ -4411,13 +4798,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="C13" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="D13" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="E13" t="s">
         <v>1</v>
@@ -4512,16 +4899,16 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="C2" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="D2" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="E2" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
@@ -4572,19 +4959,19 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="C5" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="D5" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="E5" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="F5" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6">
@@ -4652,13 +5039,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="C9" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="D9" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="E9" t="s">
         <v>1</v>
@@ -4712,7 +5099,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C12" t="s">
         <v>165</v>
@@ -4732,13 +5119,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C13" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="D13" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E13" t="s">
         <v>1</v>
@@ -4822,7 +5209,142 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>280</v>
+        <v>294</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>296</v>
+      </c>
+      <c r="C9" t="s">
+        <v>298</v>
+      </c>
+      <c r="D9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4857,7 +5379,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -4899,10 +5421,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="C5" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
@@ -4955,13 +5477,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="C9" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="D9" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10">
@@ -5011,13 +5533,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="C13" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="D13" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14">
@@ -5077,7 +5599,142 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>290</v>
+        <v>310</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>312</v>
+      </c>
+      <c r="C9" t="s">
+        <v>314</v>
+      </c>
+      <c r="D9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6120,13 +6777,13 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="C2" t="s">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="D2" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
@@ -6171,16 +6828,16 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="C5" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="D5" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="E5" t="s">
-        <v>303</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6">
@@ -6239,13 +6896,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="C9" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
       <c r="D9" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="E9" t="s">
         <v>1</v>
@@ -6307,13 +6964,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="C13" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="D13" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="E13" t="s">
         <v>1</v>
@@ -6432,40 +7089,40 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="C2" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="D2" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="E2" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="F2" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="G2" t="s">
-        <v>320</v>
+        <v>346</v>
       </c>
       <c r="H2" t="s">
-        <v>322</v>
+        <v>348</v>
       </c>
       <c r="I2" t="s">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="J2" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="K2" t="s">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c r="L2" t="s">
-        <v>330</v>
+        <v>356</v>
       </c>
       <c r="M2" t="s">
-        <v>332</v>
+        <v>358</v>
       </c>
       <c r="N2" t="s">
         <v>1</v>
@@ -6564,43 +7221,43 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="C5" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="D5" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="E5" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="F5" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="G5" t="s">
-        <v>321</v>
+        <v>347</v>
       </c>
       <c r="H5" t="s">
-        <v>323</v>
+        <v>349</v>
       </c>
       <c r="I5" t="s">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="J5" t="s">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="K5" t="s">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="L5" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="M5" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="N5" t="s">
-        <v>334</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6">
@@ -6740,13 +7397,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="C9" t="s">
-        <v>310</v>
+        <v>336</v>
       </c>
       <c r="D9" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="E9" t="s">
         <v>1</v>
@@ -6872,7 +7529,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C12" t="s">
         <v>83</v>
@@ -6916,13 +7573,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="C13" t="s">
-        <v>311</v>
+        <v>337</v>
       </c>
       <c r="D13" t="s">
-        <v>315</v>
+        <v>341</v>
       </c>
       <c r="E13" t="s">
         <v>1</v>
@@ -7105,10 +7762,10 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="C1" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="D1" t="s">
         <v>80</v>
@@ -7122,13 +7779,13 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>336</v>
+        <v>362</v>
       </c>
       <c r="C2" t="s">
-        <v>340</v>
+        <v>366</v>
       </c>
       <c r="D2" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
@@ -7173,16 +7830,16 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="C5" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="D5" t="s">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="E5" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6">
@@ -7241,13 +7898,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>338</v>
+        <v>364</v>
       </c>
       <c r="C9" t="s">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="D9" t="s">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="E9" t="s">
         <v>1</v>
@@ -7309,13 +7966,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="C13" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="D13" t="s">
-        <v>347</v>
+        <v>372</v>
       </c>
       <c r="E13" t="s">
         <v>1</v>
@@ -7413,19 +8070,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>349</v>
+        <v>374</v>
       </c>
       <c r="C2" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="D2" t="s">
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="E2" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
       <c r="F2" t="s">
-        <v>364</v>
+        <v>389</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
@@ -7482,22 +8139,22 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="C5" t="s">
-        <v>355</v>
+        <v>380</v>
       </c>
       <c r="D5" t="s">
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="E5" t="s">
-        <v>363</v>
+        <v>388</v>
       </c>
       <c r="F5" t="s">
-        <v>365</v>
+        <v>390</v>
       </c>
       <c r="G5" t="s">
-        <v>366</v>
+        <v>391</v>
       </c>
     </row>
     <row r="6">
@@ -7551,7 +8208,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="C8" t="s">
         <v>83</v>
@@ -7574,13 +8231,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>352</v>
+        <v>377</v>
       </c>
       <c r="C9" t="s">
-        <v>356</v>
+        <v>381</v>
       </c>
       <c r="D9" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="E9" t="s">
         <v>1</v>
@@ -7666,13 +8323,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>353</v>
+        <v>378</v>
       </c>
       <c r="C13" t="s">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="D13" t="s">
-        <v>361</v>
+        <v>386</v>
       </c>
       <c r="E13" t="s">
         <v>1</v>
@@ -7830,55 +8487,55 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>367</v>
+        <v>392</v>
       </c>
       <c r="C2" t="s">
-        <v>371</v>
+        <v>396</v>
       </c>
       <c r="D2" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="E2" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="F2" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
       <c r="G2" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="H2" t="s">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="I2" t="s">
-        <v>387</v>
+        <v>412</v>
       </c>
       <c r="J2" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="K2" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="L2" t="s">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="M2" t="s">
-        <v>395</v>
+        <v>420</v>
       </c>
       <c r="N2" t="s">
-        <v>397</v>
+        <v>422</v>
       </c>
       <c r="O2" t="s">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="P2" t="s">
-        <v>401</v>
+        <v>426</v>
       </c>
       <c r="Q2" t="s">
-        <v>403</v>
+        <v>428</v>
       </c>
       <c r="R2" t="s">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="S2" t="s">
         <v>1</v>
@@ -8007,58 +8664,58 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>368</v>
+        <v>393</v>
       </c>
       <c r="C5" t="s">
-        <v>372</v>
+        <v>397</v>
       </c>
       <c r="D5" t="s">
-        <v>376</v>
+        <v>401</v>
       </c>
       <c r="E5" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="F5" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="G5" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="H5" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="I5" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="J5" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="K5" t="s">
-        <v>392</v>
+        <v>417</v>
       </c>
       <c r="L5" t="s">
-        <v>394</v>
+        <v>419</v>
       </c>
       <c r="M5" t="s">
-        <v>396</v>
+        <v>421</v>
       </c>
       <c r="N5" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="O5" t="s">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="P5" t="s">
-        <v>402</v>
+        <v>427</v>
       </c>
       <c r="Q5" t="s">
-        <v>404</v>
+        <v>429</v>
       </c>
       <c r="R5" t="s">
-        <v>406</v>
+        <v>431</v>
       </c>
       <c r="S5" t="s">
-        <v>407</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6">
@@ -8187,7 +8844,7 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -8243,13 +8900,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="C9" t="s">
-        <v>373</v>
+        <v>398</v>
       </c>
       <c r="D9" t="s">
-        <v>377</v>
+        <v>402</v>
       </c>
       <c r="E9" t="s">
         <v>1</v>
@@ -8479,13 +9136,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="C13" t="s">
-        <v>374</v>
+        <v>399</v>
       </c>
       <c r="D13" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="E13" t="s">
         <v>1</v>
@@ -8745,13 +9402,13 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>408</v>
+        <v>433</v>
       </c>
       <c r="C2" t="s">
-        <v>412</v>
+        <v>437</v>
       </c>
       <c r="D2" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
@@ -8796,16 +9453,16 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>409</v>
+        <v>434</v>
       </c>
       <c r="C5" t="s">
-        <v>413</v>
+        <v>322</v>
       </c>
       <c r="D5" t="s">
-        <v>417</v>
+        <v>441</v>
       </c>
       <c r="E5" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6">
@@ -8864,13 +9521,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>410</v>
+        <v>435</v>
       </c>
       <c r="C9" t="s">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="D9" t="s">
-        <v>418</v>
+        <v>442</v>
       </c>
       <c r="E9" t="s">
         <v>1</v>
@@ -8932,13 +9589,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>411</v>
+        <v>436</v>
       </c>
       <c r="C13" t="s">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="D13" t="s">
-        <v>419</v>
+        <v>443</v>
       </c>
       <c r="E13" t="s">
         <v>1</v>
@@ -9045,28 +9702,28 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>421</v>
+        <v>445</v>
       </c>
       <c r="C2" t="s">
-        <v>425</v>
+        <v>449</v>
       </c>
       <c r="D2" t="s">
-        <v>429</v>
+        <v>453</v>
       </c>
       <c r="E2" t="s">
-        <v>433</v>
+        <v>457</v>
       </c>
       <c r="F2" t="s">
-        <v>435</v>
+        <v>459</v>
       </c>
       <c r="G2" t="s">
-        <v>437</v>
+        <v>461</v>
       </c>
       <c r="H2" t="s">
-        <v>439</v>
+        <v>463</v>
       </c>
       <c r="I2" t="s">
-        <v>441</v>
+        <v>465</v>
       </c>
       <c r="J2" t="s">
         <v>1</v>
@@ -9141,31 +9798,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>422</v>
+        <v>446</v>
       </c>
       <c r="C5" t="s">
-        <v>426</v>
+        <v>450</v>
       </c>
       <c r="D5" t="s">
-        <v>430</v>
+        <v>454</v>
       </c>
       <c r="E5" t="s">
-        <v>434</v>
+        <v>458</v>
       </c>
       <c r="F5" t="s">
-        <v>436</v>
+        <v>460</v>
       </c>
       <c r="G5" t="s">
-        <v>438</v>
+        <v>462</v>
       </c>
       <c r="H5" t="s">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="I5" t="s">
-        <v>442</v>
+        <v>466</v>
       </c>
       <c r="J5" t="s">
-        <v>443</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6">
@@ -9269,13 +9926,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>423</v>
+        <v>447</v>
       </c>
       <c r="C9" t="s">
-        <v>427</v>
+        <v>451</v>
       </c>
       <c r="D9" t="s">
-        <v>431</v>
+        <v>455</v>
       </c>
       <c r="E9" t="s">
         <v>1</v>
@@ -9397,13 +10054,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>424</v>
+        <v>448</v>
       </c>
       <c r="C13" t="s">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="D13" t="s">
-        <v>432</v>
+        <v>456</v>
       </c>
       <c r="E13" t="s">
         <v>1</v>
@@ -9571,7 +10228,7 @@
         <v>67</v>
       </c>
       <c r="M1" t="s">
-        <v>446</v>
+        <v>214</v>
       </c>
       <c r="N1" t="s">
         <v>76</v>
@@ -9585,43 +10242,43 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>444</v>
+        <v>468</v>
       </c>
       <c r="C2" t="s">
-        <v>449</v>
+        <v>472</v>
       </c>
       <c r="D2" t="s">
-        <v>453</v>
+        <v>476</v>
       </c>
       <c r="E2" t="s">
-        <v>457</v>
+        <v>480</v>
       </c>
       <c r="F2" t="s">
-        <v>459</v>
+        <v>482</v>
       </c>
       <c r="G2" t="s">
-        <v>461</v>
+        <v>484</v>
       </c>
       <c r="H2" t="s">
-        <v>463</v>
+        <v>486</v>
       </c>
       <c r="I2" t="s">
-        <v>465</v>
+        <v>488</v>
       </c>
       <c r="J2" t="s">
-        <v>467</v>
+        <v>490</v>
       </c>
       <c r="K2" t="s">
-        <v>469</v>
+        <v>492</v>
       </c>
       <c r="L2" t="s">
-        <v>471</v>
+        <v>494</v>
       </c>
       <c r="M2" t="s">
-        <v>473</v>
+        <v>496</v>
       </c>
       <c r="N2" t="s">
-        <v>475</v>
+        <v>498</v>
       </c>
       <c r="O2" t="s">
         <v>1</v>
@@ -9726,46 +10383,46 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>445</v>
+        <v>469</v>
       </c>
       <c r="C5" t="s">
-        <v>450</v>
+        <v>473</v>
       </c>
       <c r="D5" t="s">
-        <v>454</v>
+        <v>477</v>
       </c>
       <c r="E5" t="s">
-        <v>458</v>
+        <v>481</v>
       </c>
       <c r="F5" t="s">
-        <v>460</v>
+        <v>483</v>
       </c>
       <c r="G5" t="s">
-        <v>462</v>
+        <v>485</v>
       </c>
       <c r="H5" t="s">
-        <v>464</v>
+        <v>487</v>
       </c>
       <c r="I5" t="s">
-        <v>466</v>
+        <v>489</v>
       </c>
       <c r="J5" t="s">
-        <v>468</v>
+        <v>491</v>
       </c>
       <c r="K5" t="s">
-        <v>470</v>
+        <v>493</v>
       </c>
       <c r="L5" t="s">
-        <v>472</v>
+        <v>495</v>
       </c>
       <c r="M5" t="s">
-        <v>474</v>
+        <v>497</v>
       </c>
       <c r="N5" t="s">
-        <v>476</v>
+        <v>499</v>
       </c>
       <c r="O5" t="s">
-        <v>477</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6">
@@ -9867,7 +10524,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>446</v>
+        <v>214</v>
       </c>
       <c r="C8" t="s">
         <v>164</v>
@@ -9914,13 +10571,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>447</v>
+        <v>470</v>
       </c>
       <c r="C9" t="s">
-        <v>451</v>
+        <v>474</v>
       </c>
       <c r="D9" t="s">
-        <v>455</v>
+        <v>478</v>
       </c>
       <c r="E9" t="s">
         <v>1</v>
@@ -10055,13 +10712,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C12" t="s">
         <v>169</v>
       </c>
       <c r="D12" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="E12" t="s">
         <v>1</v>
@@ -10102,13 +10759,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>448</v>
+        <v>471</v>
       </c>
       <c r="C13" t="s">
-        <v>452</v>
+        <v>475</v>
       </c>
       <c r="D13" t="s">
-        <v>456</v>
+        <v>479</v>
       </c>
       <c r="E13" t="s">
         <v>1</v>
@@ -10300,7 +10957,142 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>478</v>
+        <v>501</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>502</v>
+      </c>
+      <c r="C5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D5" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>503</v>
+      </c>
+      <c r="C9" t="s">
+        <v>504</v>
+      </c>
+      <c r="D9" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10318,7 +11110,142 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>479</v>
+        <v>507</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>508</v>
+      </c>
+      <c r="C5" t="s">
+        <v>510</v>
+      </c>
+      <c r="D5" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>509</v>
+      </c>
+      <c r="C9" t="s">
+        <v>511</v>
+      </c>
+      <c r="D9" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10582,10 +11509,10 @@
         <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="E1" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="F1" t="s">
         <v>116</v>
@@ -10594,10 +11521,10 @@
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="I1" t="s">
-        <v>500</v>
+        <v>533</v>
       </c>
       <c r="J1" t="s">
         <v>204</v>
@@ -10626,46 +11553,46 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>480</v>
+        <v>514</v>
       </c>
       <c r="C2" t="s">
-        <v>484</v>
+        <v>518</v>
       </c>
       <c r="D2" t="s">
-        <v>488</v>
+        <v>521</v>
       </c>
       <c r="E2" t="s">
-        <v>492</v>
+        <v>525</v>
       </c>
       <c r="F2" t="s">
-        <v>494</v>
+        <v>527</v>
       </c>
       <c r="G2" t="s">
-        <v>496</v>
+        <v>529</v>
       </c>
       <c r="H2" t="s">
-        <v>498</v>
+        <v>531</v>
       </c>
       <c r="I2" t="s">
-        <v>501</v>
+        <v>534</v>
       </c>
       <c r="J2" t="s">
-        <v>503</v>
+        <v>536</v>
       </c>
       <c r="K2" t="s">
-        <v>505</v>
+        <v>538</v>
       </c>
       <c r="L2" t="s">
-        <v>507</v>
+        <v>540</v>
       </c>
       <c r="M2" t="s">
-        <v>509</v>
+        <v>542</v>
       </c>
       <c r="N2" t="s">
-        <v>511</v>
+        <v>544</v>
       </c>
       <c r="O2" t="s">
-        <v>513</v>
+        <v>546</v>
       </c>
       <c r="P2" t="s">
         <v>1</v>
@@ -10776,49 +11703,49 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>481</v>
+        <v>515</v>
       </c>
       <c r="C5" t="s">
-        <v>485</v>
+        <v>519</v>
       </c>
       <c r="D5" t="s">
-        <v>489</v>
+        <v>522</v>
       </c>
       <c r="E5" t="s">
-        <v>493</v>
+        <v>526</v>
       </c>
       <c r="F5" t="s">
-        <v>495</v>
+        <v>528</v>
       </c>
       <c r="G5" t="s">
-        <v>497</v>
+        <v>530</v>
       </c>
       <c r="H5" t="s">
-        <v>499</v>
+        <v>532</v>
       </c>
       <c r="I5" t="s">
-        <v>502</v>
+        <v>535</v>
       </c>
       <c r="J5" t="s">
-        <v>504</v>
+        <v>537</v>
       </c>
       <c r="K5" t="s">
-        <v>506</v>
+        <v>539</v>
       </c>
       <c r="L5" t="s">
-        <v>508</v>
+        <v>541</v>
       </c>
       <c r="M5" t="s">
-        <v>510</v>
+        <v>543</v>
       </c>
       <c r="N5" t="s">
-        <v>512</v>
+        <v>545</v>
       </c>
       <c r="O5" t="s">
-        <v>514</v>
+        <v>547</v>
       </c>
       <c r="P5" t="s">
-        <v>515</v>
+        <v>548</v>
       </c>
     </row>
     <row r="6">
@@ -10976,13 +11903,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>482</v>
+        <v>516</v>
       </c>
       <c r="C9" t="s">
-        <v>486</v>
+        <v>520</v>
       </c>
       <c r="D9" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="E9" t="s">
         <v>1</v>
@@ -11176,13 +12103,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>483</v>
+        <v>517</v>
       </c>
       <c r="C13" t="s">
-        <v>487</v>
+        <v>250</v>
       </c>
       <c r="D13" t="s">
-        <v>491</v>
+        <v>524</v>
       </c>
       <c r="E13" t="s">
         <v>1</v>
@@ -11419,7 +12346,7 @@
         <v>32</v>
       </c>
       <c r="L1" t="s">
-        <v>541</v>
+        <v>574</v>
       </c>
       <c r="M1" t="s">
         <v>67</v>
@@ -11442,49 +12369,49 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>516</v>
+        <v>549</v>
       </c>
       <c r="C2" t="s">
-        <v>520</v>
+        <v>553</v>
       </c>
       <c r="D2" t="s">
-        <v>523</v>
+        <v>556</v>
       </c>
       <c r="E2" t="s">
-        <v>527</v>
+        <v>560</v>
       </c>
       <c r="F2" t="s">
-        <v>529</v>
+        <v>562</v>
       </c>
       <c r="G2" t="s">
-        <v>531</v>
+        <v>564</v>
       </c>
       <c r="H2" t="s">
-        <v>533</v>
+        <v>566</v>
       </c>
       <c r="I2" t="s">
-        <v>535</v>
+        <v>568</v>
       </c>
       <c r="J2" t="s">
-        <v>537</v>
+        <v>570</v>
       </c>
       <c r="K2" t="s">
-        <v>539</v>
+        <v>572</v>
       </c>
       <c r="L2" t="s">
-        <v>542</v>
+        <v>575</v>
       </c>
       <c r="M2" t="s">
-        <v>544</v>
+        <v>577</v>
       </c>
       <c r="N2" t="s">
-        <v>546</v>
+        <v>579</v>
       </c>
       <c r="O2" t="s">
-        <v>548</v>
+        <v>581</v>
       </c>
       <c r="P2" t="s">
-        <v>550</v>
+        <v>583</v>
       </c>
       <c r="Q2" t="s">
         <v>1</v>
@@ -11601,52 +12528,52 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>517</v>
+        <v>550</v>
       </c>
       <c r="C5" t="s">
-        <v>521</v>
+        <v>554</v>
       </c>
       <c r="D5" t="s">
-        <v>524</v>
+        <v>557</v>
       </c>
       <c r="E5" t="s">
-        <v>528</v>
+        <v>561</v>
       </c>
       <c r="F5" t="s">
-        <v>530</v>
+        <v>563</v>
       </c>
       <c r="G5" t="s">
-        <v>532</v>
+        <v>565</v>
       </c>
       <c r="H5" t="s">
-        <v>534</v>
+        <v>567</v>
       </c>
       <c r="I5" t="s">
-        <v>536</v>
+        <v>569</v>
       </c>
       <c r="J5" t="s">
-        <v>538</v>
+        <v>571</v>
       </c>
       <c r="K5" t="s">
-        <v>540</v>
+        <v>573</v>
       </c>
       <c r="L5" t="s">
-        <v>543</v>
+        <v>576</v>
       </c>
       <c r="M5" t="s">
-        <v>545</v>
+        <v>578</v>
       </c>
       <c r="N5" t="s">
-        <v>547</v>
+        <v>580</v>
       </c>
       <c r="O5" t="s">
-        <v>549</v>
+        <v>582</v>
       </c>
       <c r="P5" t="s">
-        <v>551</v>
+        <v>584</v>
       </c>
       <c r="Q5" t="s">
-        <v>552</v>
+        <v>585</v>
       </c>
     </row>
     <row r="6">
@@ -11813,13 +12740,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>518</v>
+        <v>551</v>
       </c>
       <c r="C9" t="s">
-        <v>522</v>
+        <v>555</v>
       </c>
       <c r="D9" t="s">
-        <v>525</v>
+        <v>558</v>
       </c>
       <c r="E9" t="s">
         <v>1</v>
@@ -12025,13 +12952,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>519</v>
+        <v>552</v>
       </c>
       <c r="C13" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="D13" t="s">
-        <v>526</v>
+        <v>559</v>
       </c>
       <c r="E13" t="s">
         <v>1</v>
@@ -12300,46 +13227,46 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>553</v>
+        <v>586</v>
       </c>
       <c r="C2" t="s">
-        <v>557</v>
+        <v>590</v>
       </c>
       <c r="D2" t="s">
-        <v>561</v>
+        <v>594</v>
       </c>
       <c r="E2" t="s">
-        <v>565</v>
+        <v>598</v>
       </c>
       <c r="F2" t="s">
-        <v>567</v>
+        <v>600</v>
       </c>
       <c r="G2" t="s">
-        <v>569</v>
+        <v>602</v>
       </c>
       <c r="H2" t="s">
-        <v>571</v>
+        <v>604</v>
       </c>
       <c r="I2" t="s">
-        <v>573</v>
+        <v>606</v>
       </c>
       <c r="J2" t="s">
-        <v>575</v>
+        <v>608</v>
       </c>
       <c r="K2" t="s">
-        <v>577</v>
+        <v>610</v>
       </c>
       <c r="L2" t="s">
-        <v>579</v>
+        <v>612</v>
       </c>
       <c r="M2" t="s">
-        <v>581</v>
+        <v>614</v>
       </c>
       <c r="N2" t="s">
-        <v>583</v>
+        <v>616</v>
       </c>
       <c r="O2" t="s">
-        <v>585</v>
+        <v>618</v>
       </c>
       <c r="P2" t="s">
         <v>1</v>
@@ -12450,49 +13377,49 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>554</v>
+        <v>587</v>
       </c>
       <c r="C5" t="s">
-        <v>558</v>
+        <v>591</v>
       </c>
       <c r="D5" t="s">
-        <v>562</v>
+        <v>595</v>
       </c>
       <c r="E5" t="s">
-        <v>566</v>
+        <v>599</v>
       </c>
       <c r="F5" t="s">
-        <v>568</v>
+        <v>601</v>
       </c>
       <c r="G5" t="s">
-        <v>570</v>
+        <v>603</v>
       </c>
       <c r="H5" t="s">
-        <v>572</v>
+        <v>605</v>
       </c>
       <c r="I5" t="s">
-        <v>574</v>
+        <v>607</v>
       </c>
       <c r="J5" t="s">
-        <v>576</v>
+        <v>609</v>
       </c>
       <c r="K5" t="s">
-        <v>578</v>
+        <v>611</v>
       </c>
       <c r="L5" t="s">
-        <v>580</v>
+        <v>613</v>
       </c>
       <c r="M5" t="s">
-        <v>582</v>
+        <v>615</v>
       </c>
       <c r="N5" t="s">
-        <v>584</v>
+        <v>617</v>
       </c>
       <c r="O5" t="s">
-        <v>586</v>
+        <v>619</v>
       </c>
       <c r="P5" t="s">
-        <v>587</v>
+        <v>620</v>
       </c>
     </row>
     <row r="6">
@@ -12650,13 +13577,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>555</v>
+        <v>588</v>
       </c>
       <c r="C9" t="s">
-        <v>559</v>
+        <v>592</v>
       </c>
       <c r="D9" t="s">
-        <v>563</v>
+        <v>596</v>
       </c>
       <c r="E9" t="s">
         <v>1</v>
@@ -12850,13 +13777,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>556</v>
+        <v>589</v>
       </c>
       <c r="C13" t="s">
-        <v>560</v>
+        <v>593</v>
       </c>
       <c r="D13" t="s">
-        <v>564</v>
+        <v>597</v>
       </c>
       <c r="E13" t="s">
         <v>1</v>
@@ -13078,7 +14005,7 @@
         <v>110</v>
       </c>
       <c r="G1" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="H1" t="s">
         <v>59</v>
@@ -13087,7 +14014,7 @@
         <v>116</v>
       </c>
       <c r="J1" t="s">
-        <v>541</v>
+        <v>574</v>
       </c>
       <c r="K1" t="s">
         <v>204</v>
@@ -13096,7 +14023,7 @@
         <v>34</v>
       </c>
       <c r="M1" t="s">
-        <v>446</v>
+        <v>214</v>
       </c>
       <c r="N1" t="s">
         <v>70</v>
@@ -13122,55 +14049,55 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>588</v>
+        <v>621</v>
       </c>
       <c r="C2" t="s">
-        <v>592</v>
+        <v>625</v>
       </c>
       <c r="D2" t="s">
-        <v>596</v>
+        <v>629</v>
       </c>
       <c r="E2" t="s">
-        <v>600</v>
+        <v>633</v>
       </c>
       <c r="F2" t="s">
-        <v>602</v>
+        <v>635</v>
       </c>
       <c r="G2" t="s">
-        <v>604</v>
+        <v>637</v>
       </c>
       <c r="H2" t="s">
-        <v>606</v>
+        <v>639</v>
       </c>
       <c r="I2" t="s">
-        <v>608</v>
+        <v>641</v>
       </c>
       <c r="J2" t="s">
-        <v>610</v>
+        <v>643</v>
       </c>
       <c r="K2" t="s">
-        <v>612</v>
+        <v>645</v>
       </c>
       <c r="L2" t="s">
-        <v>614</v>
+        <v>647</v>
       </c>
       <c r="M2" t="s">
-        <v>616</v>
+        <v>649</v>
       </c>
       <c r="N2" t="s">
-        <v>618</v>
+        <v>651</v>
       </c>
       <c r="O2" t="s">
-        <v>620</v>
+        <v>653</v>
       </c>
       <c r="P2" t="s">
-        <v>622</v>
+        <v>655</v>
       </c>
       <c r="Q2" t="s">
-        <v>624</v>
+        <v>657</v>
       </c>
       <c r="R2" t="s">
-        <v>626</v>
+        <v>659</v>
       </c>
       <c r="S2" t="s">
         <v>1</v>
@@ -13299,58 +14226,58 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>589</v>
+        <v>622</v>
       </c>
       <c r="C5" t="s">
-        <v>593</v>
+        <v>626</v>
       </c>
       <c r="D5" t="s">
-        <v>597</v>
+        <v>630</v>
       </c>
       <c r="E5" t="s">
-        <v>601</v>
+        <v>634</v>
       </c>
       <c r="F5" t="s">
-        <v>603</v>
+        <v>636</v>
       </c>
       <c r="G5" t="s">
-        <v>605</v>
+        <v>638</v>
       </c>
       <c r="H5" t="s">
-        <v>607</v>
+        <v>640</v>
       </c>
       <c r="I5" t="s">
-        <v>609</v>
+        <v>642</v>
       </c>
       <c r="J5" t="s">
-        <v>611</v>
+        <v>644</v>
       </c>
       <c r="K5" t="s">
-        <v>613</v>
+        <v>646</v>
       </c>
       <c r="L5" t="s">
-        <v>615</v>
+        <v>648</v>
       </c>
       <c r="M5" t="s">
-        <v>617</v>
+        <v>650</v>
       </c>
       <c r="N5" t="s">
-        <v>619</v>
+        <v>652</v>
       </c>
       <c r="O5" t="s">
-        <v>621</v>
+        <v>654</v>
       </c>
       <c r="P5" t="s">
-        <v>623</v>
+        <v>656</v>
       </c>
       <c r="Q5" t="s">
-        <v>625</v>
+        <v>658</v>
       </c>
       <c r="R5" t="s">
-        <v>627</v>
+        <v>660</v>
       </c>
       <c r="S5" t="s">
-        <v>628</v>
+        <v>661</v>
       </c>
     </row>
     <row r="6">
@@ -13535,13 +14462,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>590</v>
+        <v>623</v>
       </c>
       <c r="C9" t="s">
-        <v>594</v>
+        <v>627</v>
       </c>
       <c r="D9" t="s">
-        <v>598</v>
+        <v>631</v>
       </c>
       <c r="E9" t="s">
         <v>1</v>
@@ -13771,13 +14698,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>591</v>
+        <v>624</v>
       </c>
       <c r="C13" t="s">
-        <v>595</v>
+        <v>628</v>
       </c>
       <c r="D13" t="s">
-        <v>599</v>
+        <v>632</v>
       </c>
       <c r="E13" t="s">
         <v>1</v>
@@ -14055,31 +14982,31 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>629</v>
+        <v>662</v>
       </c>
       <c r="C2" t="s">
-        <v>633</v>
+        <v>666</v>
       </c>
       <c r="D2" t="s">
-        <v>637</v>
+        <v>670</v>
       </c>
       <c r="E2" t="s">
-        <v>641</v>
+        <v>674</v>
       </c>
       <c r="F2" t="s">
-        <v>643</v>
+        <v>676</v>
       </c>
       <c r="G2" t="s">
-        <v>645</v>
+        <v>678</v>
       </c>
       <c r="H2" t="s">
-        <v>647</v>
+        <v>680</v>
       </c>
       <c r="I2" t="s">
-        <v>649</v>
+        <v>682</v>
       </c>
       <c r="J2" t="s">
-        <v>651</v>
+        <v>684</v>
       </c>
       <c r="K2" t="s">
         <v>1</v>
@@ -14160,34 +15087,34 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>630</v>
+        <v>663</v>
       </c>
       <c r="C5" t="s">
-        <v>634</v>
+        <v>667</v>
       </c>
       <c r="D5" t="s">
-        <v>638</v>
+        <v>671</v>
       </c>
       <c r="E5" t="s">
-        <v>642</v>
+        <v>675</v>
       </c>
       <c r="F5" t="s">
-        <v>644</v>
+        <v>677</v>
       </c>
       <c r="G5" t="s">
-        <v>646</v>
+        <v>679</v>
       </c>
       <c r="H5" t="s">
-        <v>648</v>
+        <v>681</v>
       </c>
       <c r="I5" t="s">
-        <v>650</v>
+        <v>683</v>
       </c>
       <c r="J5" t="s">
-        <v>652</v>
+        <v>685</v>
       </c>
       <c r="K5" t="s">
-        <v>653</v>
+        <v>686</v>
       </c>
     </row>
     <row r="6">
@@ -14300,13 +15227,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>631</v>
+        <v>664</v>
       </c>
       <c r="C9" t="s">
-        <v>635</v>
+        <v>668</v>
       </c>
       <c r="D9" t="s">
-        <v>639</v>
+        <v>672</v>
       </c>
       <c r="E9" t="s">
         <v>1</v>
@@ -14440,13 +15367,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>632</v>
+        <v>665</v>
       </c>
       <c r="C13" t="s">
-        <v>636</v>
+        <v>669</v>
       </c>
       <c r="D13" t="s">
-        <v>640</v>
+        <v>673</v>
       </c>
       <c r="E13" t="s">
         <v>1</v>
@@ -14634,37 +15561,37 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>654</v>
+        <v>687</v>
       </c>
       <c r="C2" t="s">
-        <v>658</v>
+        <v>691</v>
       </c>
       <c r="D2" t="s">
-        <v>662</v>
+        <v>695</v>
       </c>
       <c r="E2" t="s">
-        <v>666</v>
+        <v>699</v>
       </c>
       <c r="F2" t="s">
-        <v>668</v>
+        <v>701</v>
       </c>
       <c r="G2" t="s">
-        <v>670</v>
+        <v>703</v>
       </c>
       <c r="H2" t="s">
-        <v>672</v>
+        <v>705</v>
       </c>
       <c r="I2" t="s">
-        <v>674</v>
+        <v>707</v>
       </c>
       <c r="J2" t="s">
-        <v>676</v>
+        <v>709</v>
       </c>
       <c r="K2" t="s">
-        <v>678</v>
+        <v>711</v>
       </c>
       <c r="L2" t="s">
-        <v>680</v>
+        <v>713</v>
       </c>
       <c r="M2" t="s">
         <v>1</v>
@@ -14757,40 +15684,40 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>655</v>
+        <v>688</v>
       </c>
       <c r="C5" t="s">
-        <v>659</v>
+        <v>692</v>
       </c>
       <c r="D5" t="s">
-        <v>663</v>
+        <v>696</v>
       </c>
       <c r="E5" t="s">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="F5" t="s">
-        <v>669</v>
+        <v>702</v>
       </c>
       <c r="G5" t="s">
-        <v>671</v>
+        <v>704</v>
       </c>
       <c r="H5" t="s">
-        <v>673</v>
+        <v>706</v>
       </c>
       <c r="I5" t="s">
-        <v>675</v>
+        <v>708</v>
       </c>
       <c r="J5" t="s">
-        <v>677</v>
+        <v>710</v>
       </c>
       <c r="K5" t="s">
-        <v>679</v>
+        <v>712</v>
       </c>
       <c r="L5" t="s">
-        <v>681</v>
+        <v>714</v>
       </c>
       <c r="M5" t="s">
-        <v>682</v>
+        <v>715</v>
       </c>
     </row>
     <row r="6">
@@ -14921,13 +15848,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>656</v>
+        <v>689</v>
       </c>
       <c r="C9" t="s">
-        <v>660</v>
+        <v>693</v>
       </c>
       <c r="D9" t="s">
-        <v>664</v>
+        <v>697</v>
       </c>
       <c r="E9" t="s">
         <v>1</v>
@@ -15047,10 +15974,10 @@
         <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>541</v>
+        <v>574</v>
       </c>
       <c r="D12" t="s">
-        <v>500</v>
+        <v>533</v>
       </c>
       <c r="E12" t="s">
         <v>1</v>
@@ -15085,13 +16012,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>657</v>
+        <v>690</v>
       </c>
       <c r="C13" t="s">
-        <v>661</v>
+        <v>694</v>
       </c>
       <c r="D13" t="s">
-        <v>665</v>
+        <v>698</v>
       </c>
       <c r="E13" t="s">
         <v>1</v>
@@ -15265,7 +16192,7 @@
         <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -15276,10 +16203,10 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>683</v>
+        <v>716</v>
       </c>
       <c r="C2" t="s">
-        <v>686</v>
+        <v>719</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -15318,13 +16245,13 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>684</v>
+        <v>717</v>
       </c>
       <c r="C5" t="s">
-        <v>687</v>
+        <v>720</v>
       </c>
       <c r="D5" t="s">
-        <v>690</v>
+        <v>723</v>
       </c>
     </row>
     <row r="6">
@@ -15360,10 +16287,10 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C8" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="D8" t="s">
         <v>83</v>
@@ -15374,13 +16301,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>685</v>
+        <v>718</v>
       </c>
       <c r="C9" t="s">
-        <v>688</v>
+        <v>721</v>
       </c>
       <c r="D9" t="s">
-        <v>691</v>
+        <v>724</v>
       </c>
     </row>
     <row r="10">
@@ -15433,10 +16360,10 @@
         <v>141</v>
       </c>
       <c r="C13" t="s">
-        <v>689</v>
+        <v>722</v>
       </c>
       <c r="D13" t="s">
-        <v>692</v>
+        <v>725</v>
       </c>
     </row>
     <row r="14">
@@ -15525,22 +16452,22 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>693</v>
+        <v>726</v>
       </c>
       <c r="C2" t="s">
-        <v>697</v>
+        <v>730</v>
       </c>
       <c r="D2" t="s">
-        <v>701</v>
+        <v>734</v>
       </c>
       <c r="E2" t="s">
-        <v>705</v>
+        <v>738</v>
       </c>
       <c r="F2" t="s">
-        <v>707</v>
+        <v>740</v>
       </c>
       <c r="G2" t="s">
-        <v>709</v>
+        <v>742</v>
       </c>
       <c r="H2" t="s">
         <v>1</v>
@@ -15603,25 +16530,25 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>694</v>
+        <v>727</v>
       </c>
       <c r="C5" t="s">
-        <v>698</v>
+        <v>731</v>
       </c>
       <c r="D5" t="s">
-        <v>702</v>
+        <v>735</v>
       </c>
       <c r="E5" t="s">
-        <v>706</v>
+        <v>739</v>
       </c>
       <c r="F5" t="s">
-        <v>708</v>
+        <v>741</v>
       </c>
       <c r="G5" t="s">
-        <v>710</v>
+        <v>743</v>
       </c>
       <c r="H5" t="s">
-        <v>711</v>
+        <v>744</v>
       </c>
     </row>
     <row r="6">
@@ -15687,7 +16614,7 @@
         <v>144</v>
       </c>
       <c r="D8" t="s">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="E8" t="s">
         <v>1</v>
@@ -15707,13 +16634,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>695</v>
+        <v>728</v>
       </c>
       <c r="C9" t="s">
-        <v>699</v>
+        <v>732</v>
       </c>
       <c r="D9" t="s">
-        <v>703</v>
+        <v>736</v>
       </c>
       <c r="E9" t="s">
         <v>1</v>
@@ -15811,13 +16738,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>696</v>
+        <v>729</v>
       </c>
       <c r="C13" t="s">
-        <v>700</v>
+        <v>733</v>
       </c>
       <c r="D13" t="s">
-        <v>704</v>
+        <v>737</v>
       </c>
       <c r="E13" t="s">
         <v>1</v>
@@ -15931,16 +16858,16 @@
         <v>149</v>
       </c>
       <c r="C1" t="s">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="D1" t="s">
         <v>175</v>
       </c>
       <c r="E1" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="F1" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="G1" t="s">
         <v>86</v>
@@ -15954,22 +16881,22 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>712</v>
+        <v>745</v>
       </c>
       <c r="C2" t="s">
-        <v>716</v>
+        <v>749</v>
       </c>
       <c r="D2" t="s">
-        <v>720</v>
+        <v>753</v>
       </c>
       <c r="E2" t="s">
-        <v>724</v>
+        <v>757</v>
       </c>
       <c r="F2" t="s">
-        <v>726</v>
+        <v>759</v>
       </c>
       <c r="G2" t="s">
-        <v>728</v>
+        <v>761</v>
       </c>
       <c r="H2" t="s">
         <v>1</v>
@@ -16032,25 +16959,25 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>713</v>
+        <v>746</v>
       </c>
       <c r="C5" t="s">
-        <v>717</v>
+        <v>750</v>
       </c>
       <c r="D5" t="s">
-        <v>721</v>
+        <v>754</v>
       </c>
       <c r="E5" t="s">
-        <v>725</v>
+        <v>758</v>
       </c>
       <c r="F5" t="s">
-        <v>727</v>
+        <v>760</v>
       </c>
       <c r="G5" t="s">
-        <v>729</v>
+        <v>762</v>
       </c>
       <c r="H5" t="s">
-        <v>730</v>
+        <v>763</v>
       </c>
     </row>
     <row r="6">
@@ -16110,7 +17037,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C8" t="s">
         <v>144</v>
@@ -16136,13 +17063,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>714</v>
+        <v>747</v>
       </c>
       <c r="C9" t="s">
-        <v>718</v>
+        <v>751</v>
       </c>
       <c r="D9" t="s">
-        <v>722</v>
+        <v>755</v>
       </c>
       <c r="E9" t="s">
         <v>1</v>
@@ -16240,13 +17167,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>715</v>
+        <v>748</v>
       </c>
       <c r="C13" t="s">
-        <v>719</v>
+        <v>752</v>
       </c>
       <c r="D13" t="s">
-        <v>723</v>
+        <v>756</v>
       </c>
       <c r="E13" t="s">
         <v>1</v>
@@ -16360,7 +17287,7 @@
         <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="D1" t="s">
         <v>204</v>
@@ -16377,16 +17304,16 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>731</v>
+        <v>764</v>
       </c>
       <c r="C2" t="s">
-        <v>735</v>
+        <v>768</v>
       </c>
       <c r="D2" t="s">
-        <v>739</v>
+        <v>772</v>
       </c>
       <c r="E2" t="s">
-        <v>742</v>
+        <v>775</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
@@ -16437,19 +17364,19 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>732</v>
+        <v>765</v>
       </c>
       <c r="C5" t="s">
-        <v>736</v>
+        <v>769</v>
       </c>
       <c r="D5" t="s">
-        <v>740</v>
+        <v>773</v>
       </c>
       <c r="E5" t="s">
-        <v>743</v>
+        <v>776</v>
       </c>
       <c r="F5" t="s">
-        <v>744</v>
+        <v>777</v>
       </c>
     </row>
     <row r="6">
@@ -16503,7 +17430,7 @@
         <v>89</v>
       </c>
       <c r="D8" t="s">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="E8" t="s">
         <v>1</v>
@@ -16517,13 +17444,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>733</v>
+        <v>766</v>
       </c>
       <c r="C9" t="s">
-        <v>737</v>
+        <v>770</v>
       </c>
       <c r="D9" t="s">
-        <v>649</v>
+        <v>682</v>
       </c>
       <c r="E9" t="s">
         <v>1</v>
@@ -16597,13 +17524,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>734</v>
+        <v>767</v>
       </c>
       <c r="C13" t="s">
-        <v>738</v>
+        <v>771</v>
       </c>
       <c r="D13" t="s">
-        <v>741</v>
+        <v>774</v>
       </c>
       <c r="E13" t="s">
         <v>1</v>
@@ -17224,7 +18151,7 @@
         <v>36</v>
       </c>
       <c r="E1" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="F1" t="s">
         <v>116</v>
@@ -17236,10 +18163,10 @@
         <v>32</v>
       </c>
       <c r="I1" t="s">
-        <v>541</v>
+        <v>574</v>
       </c>
       <c r="J1" t="s">
-        <v>500</v>
+        <v>533</v>
       </c>
       <c r="K1" t="s">
         <v>89</v>
@@ -17262,43 +18189,43 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>745</v>
+        <v>778</v>
       </c>
       <c r="C2" t="s">
-        <v>749</v>
+        <v>782</v>
       </c>
       <c r="D2" t="s">
-        <v>753</v>
+        <v>786</v>
       </c>
       <c r="E2" t="s">
-        <v>756</v>
+        <v>789</v>
       </c>
       <c r="F2" t="s">
-        <v>758</v>
+        <v>791</v>
       </c>
       <c r="G2" t="s">
-        <v>760</v>
+        <v>793</v>
       </c>
       <c r="H2" t="s">
-        <v>762</v>
+        <v>795</v>
       </c>
       <c r="I2" t="s">
-        <v>764</v>
+        <v>797</v>
       </c>
       <c r="J2" t="s">
-        <v>766</v>
+        <v>799</v>
       </c>
       <c r="K2" t="s">
-        <v>768</v>
+        <v>801</v>
       </c>
       <c r="L2" t="s">
-        <v>770</v>
+        <v>803</v>
       </c>
       <c r="M2" t="s">
-        <v>772</v>
+        <v>805</v>
       </c>
       <c r="N2" t="s">
-        <v>774</v>
+        <v>807</v>
       </c>
       <c r="O2" t="s">
         <v>1</v>
@@ -17403,46 +18330,46 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>746</v>
+        <v>779</v>
       </c>
       <c r="C5" t="s">
-        <v>750</v>
+        <v>783</v>
       </c>
       <c r="D5" t="s">
-        <v>754</v>
+        <v>787</v>
       </c>
       <c r="E5" t="s">
-        <v>757</v>
+        <v>790</v>
       </c>
       <c r="F5" t="s">
-        <v>759</v>
+        <v>792</v>
       </c>
       <c r="G5" t="s">
-        <v>761</v>
+        <v>794</v>
       </c>
       <c r="H5" t="s">
-        <v>763</v>
+        <v>796</v>
       </c>
       <c r="I5" t="s">
-        <v>765</v>
+        <v>798</v>
       </c>
       <c r="J5" t="s">
-        <v>767</v>
+        <v>800</v>
       </c>
       <c r="K5" t="s">
-        <v>769</v>
+        <v>802</v>
       </c>
       <c r="L5" t="s">
-        <v>771</v>
+        <v>804</v>
       </c>
       <c r="M5" t="s">
-        <v>773</v>
+        <v>806</v>
       </c>
       <c r="N5" t="s">
-        <v>775</v>
+        <v>808</v>
       </c>
       <c r="O5" t="s">
-        <v>776</v>
+        <v>809</v>
       </c>
     </row>
     <row r="6">
@@ -17591,13 +18518,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>747</v>
+        <v>780</v>
       </c>
       <c r="C9" t="s">
-        <v>751</v>
+        <v>784</v>
       </c>
       <c r="D9" t="s">
-        <v>755</v>
+        <v>788</v>
       </c>
       <c r="E9" t="s">
         <v>1</v>
@@ -17779,10 +18706,10 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>748</v>
+        <v>781</v>
       </c>
       <c r="C13" t="s">
-        <v>752</v>
+        <v>785</v>
       </c>
       <c r="D13" t="s">
         <v>102</v>
@@ -17994,7 +18921,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>777</v>
+        <v>810</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -18036,10 +18963,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>778</v>
+        <v>811</v>
       </c>
       <c r="C5" t="s">
-        <v>781</v>
+        <v>814</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
@@ -18092,13 +19019,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>779</v>
+        <v>812</v>
       </c>
       <c r="C9" t="s">
-        <v>782</v>
+        <v>815</v>
       </c>
       <c r="D9" t="s">
-        <v>784</v>
+        <v>817</v>
       </c>
     </row>
     <row r="10">
@@ -18148,13 +19075,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>780</v>
+        <v>813</v>
       </c>
       <c r="C13" t="s">
-        <v>783</v>
+        <v>816</v>
       </c>
       <c r="D13" t="s">
-        <v>785</v>
+        <v>818</v>
       </c>
     </row>
     <row r="14">
@@ -18232,7 +19159,7 @@
         <v>110</v>
       </c>
       <c r="G1" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="H1" t="s">
         <v>116</v>
@@ -18255,34 +19182,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>786</v>
+        <v>819</v>
       </c>
       <c r="C2" t="s">
-        <v>790</v>
+        <v>823</v>
       </c>
       <c r="D2" t="s">
-        <v>794</v>
+        <v>827</v>
       </c>
       <c r="E2" t="s">
-        <v>798</v>
+        <v>831</v>
       </c>
       <c r="F2" t="s">
-        <v>800</v>
+        <v>833</v>
       </c>
       <c r="G2" t="s">
-        <v>802</v>
+        <v>835</v>
       </c>
       <c r="H2" t="s">
-        <v>804</v>
+        <v>837</v>
       </c>
       <c r="I2" t="s">
-        <v>806</v>
+        <v>839</v>
       </c>
       <c r="J2" t="s">
-        <v>808</v>
+        <v>841</v>
       </c>
       <c r="K2" t="s">
-        <v>810</v>
+        <v>843</v>
       </c>
       <c r="L2" t="s">
         <v>1</v>
@@ -18369,37 +19296,37 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>787</v>
+        <v>820</v>
       </c>
       <c r="C5" t="s">
-        <v>791</v>
+        <v>824</v>
       </c>
       <c r="D5" t="s">
-        <v>795</v>
+        <v>828</v>
       </c>
       <c r="E5" t="s">
-        <v>799</v>
+        <v>832</v>
       </c>
       <c r="F5" t="s">
-        <v>801</v>
+        <v>834</v>
       </c>
       <c r="G5" t="s">
-        <v>803</v>
+        <v>836</v>
       </c>
       <c r="H5" t="s">
-        <v>805</v>
+        <v>838</v>
       </c>
       <c r="I5" t="s">
-        <v>807</v>
+        <v>840</v>
       </c>
       <c r="J5" t="s">
-        <v>809</v>
+        <v>842</v>
       </c>
       <c r="K5" t="s">
-        <v>811</v>
+        <v>844</v>
       </c>
       <c r="L5" t="s">
-        <v>812</v>
+        <v>845</v>
       </c>
     </row>
     <row r="6">
@@ -18486,10 +19413,10 @@
         <v>144</v>
       </c>
       <c r="C8" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="D8" t="s">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="E8" t="s">
         <v>1</v>
@@ -18521,13 +19448,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>788</v>
+        <v>821</v>
       </c>
       <c r="C9" t="s">
-        <v>792</v>
+        <v>825</v>
       </c>
       <c r="D9" t="s">
-        <v>796</v>
+        <v>829</v>
       </c>
       <c r="E9" t="s">
         <v>1</v>
@@ -18673,13 +19600,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>789</v>
+        <v>822</v>
       </c>
       <c r="C13" t="s">
-        <v>793</v>
+        <v>826</v>
       </c>
       <c r="D13" t="s">
-        <v>797</v>
+        <v>830</v>
       </c>
       <c r="E13" t="s">
         <v>1</v>
@@ -18879,37 +19806,37 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>813</v>
+        <v>846</v>
       </c>
       <c r="C2" t="s">
-        <v>817</v>
+        <v>850</v>
       </c>
       <c r="D2" t="s">
-        <v>821</v>
+        <v>854</v>
       </c>
       <c r="E2" t="s">
-        <v>825</v>
+        <v>858</v>
       </c>
       <c r="F2" t="s">
-        <v>827</v>
+        <v>860</v>
       </c>
       <c r="G2" t="s">
-        <v>829</v>
+        <v>862</v>
       </c>
       <c r="H2" t="s">
-        <v>831</v>
+        <v>864</v>
       </c>
       <c r="I2" t="s">
-        <v>833</v>
+        <v>866</v>
       </c>
       <c r="J2" t="s">
-        <v>835</v>
+        <v>868</v>
       </c>
       <c r="K2" t="s">
-        <v>837</v>
+        <v>870</v>
       </c>
       <c r="L2" t="s">
-        <v>839</v>
+        <v>872</v>
       </c>
       <c r="M2" t="s">
         <v>1</v>
@@ -19002,40 +19929,40 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>814</v>
+        <v>847</v>
       </c>
       <c r="C5" t="s">
-        <v>818</v>
+        <v>851</v>
       </c>
       <c r="D5" t="s">
-        <v>822</v>
+        <v>855</v>
       </c>
       <c r="E5" t="s">
-        <v>826</v>
+        <v>859</v>
       </c>
       <c r="F5" t="s">
-        <v>828</v>
+        <v>861</v>
       </c>
       <c r="G5" t="s">
-        <v>830</v>
+        <v>863</v>
       </c>
       <c r="H5" t="s">
-        <v>832</v>
+        <v>865</v>
       </c>
       <c r="I5" t="s">
-        <v>834</v>
+        <v>867</v>
       </c>
       <c r="J5" t="s">
-        <v>836</v>
+        <v>869</v>
       </c>
       <c r="K5" t="s">
-        <v>838</v>
+        <v>871</v>
       </c>
       <c r="L5" t="s">
-        <v>840</v>
+        <v>873</v>
       </c>
       <c r="M5" t="s">
-        <v>841</v>
+        <v>874</v>
       </c>
     </row>
     <row r="6">
@@ -19131,7 +20058,7 @@
         <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="E8" t="s">
         <v>1</v>
@@ -19166,13 +20093,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>815</v>
+        <v>848</v>
       </c>
       <c r="C9" t="s">
-        <v>819</v>
+        <v>852</v>
       </c>
       <c r="D9" t="s">
-        <v>823</v>
+        <v>856</v>
       </c>
       <c r="E9" t="s">
         <v>1</v>
@@ -19330,13 +20257,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>816</v>
+        <v>849</v>
       </c>
       <c r="C13" t="s">
-        <v>820</v>
+        <v>853</v>
       </c>
       <c r="D13" t="s">
-        <v>824</v>
+        <v>857</v>
       </c>
       <c r="E13" t="s">
         <v>1</v>
@@ -19521,10 +20448,10 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>842</v>
+        <v>875</v>
       </c>
       <c r="C2" t="s">
-        <v>846</v>
+        <v>879</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -19563,13 +20490,13 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>843</v>
+        <v>876</v>
       </c>
       <c r="C5" t="s">
-        <v>847</v>
+        <v>880</v>
       </c>
       <c r="D5" t="s">
-        <v>850</v>
+        <v>883</v>
       </c>
     </row>
     <row r="6">
@@ -19619,13 +20546,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>844</v>
+        <v>877</v>
       </c>
       <c r="C9" t="s">
-        <v>848</v>
+        <v>881</v>
       </c>
       <c r="D9" t="s">
-        <v>851</v>
+        <v>884</v>
       </c>
     </row>
     <row r="10">
@@ -19675,13 +20602,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>845</v>
+        <v>878</v>
       </c>
       <c r="C13" t="s">
-        <v>849</v>
+        <v>882</v>
       </c>
       <c r="D13" t="s">
-        <v>852</v>
+        <v>885</v>
       </c>
     </row>
     <row r="14">
@@ -19773,25 +20700,25 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>853</v>
+        <v>886</v>
       </c>
       <c r="C2" t="s">
-        <v>856</v>
+        <v>889</v>
       </c>
       <c r="D2" t="s">
-        <v>860</v>
+        <v>893</v>
       </c>
       <c r="E2" t="s">
-        <v>864</v>
+        <v>897</v>
       </c>
       <c r="F2" t="s">
-        <v>866</v>
+        <v>899</v>
       </c>
       <c r="G2" t="s">
-        <v>868</v>
+        <v>901</v>
       </c>
       <c r="H2" t="s">
-        <v>870</v>
+        <v>903</v>
       </c>
       <c r="I2" t="s">
         <v>1</v>
@@ -19860,28 +20787,28 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>854</v>
+        <v>887</v>
       </c>
       <c r="C5" t="s">
-        <v>857</v>
+        <v>890</v>
       </c>
       <c r="D5" t="s">
-        <v>861</v>
+        <v>894</v>
       </c>
       <c r="E5" t="s">
-        <v>865</v>
+        <v>898</v>
       </c>
       <c r="F5" t="s">
-        <v>867</v>
+        <v>900</v>
       </c>
       <c r="G5" t="s">
-        <v>869</v>
+        <v>902</v>
       </c>
       <c r="H5" t="s">
-        <v>871</v>
+        <v>904</v>
       </c>
       <c r="I5" t="s">
-        <v>872</v>
+        <v>905</v>
       </c>
     </row>
     <row r="6">
@@ -19976,13 +20903,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>784</v>
+        <v>817</v>
       </c>
       <c r="C9" t="s">
-        <v>858</v>
+        <v>891</v>
       </c>
       <c r="D9" t="s">
-        <v>862</v>
+        <v>895</v>
       </c>
       <c r="E9" t="s">
         <v>1</v>
@@ -20092,13 +21019,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>855</v>
+        <v>888</v>
       </c>
       <c r="C13" t="s">
-        <v>859</v>
+        <v>892</v>
       </c>
       <c r="D13" t="s">
-        <v>863</v>
+        <v>896</v>
       </c>
       <c r="E13" t="s">
         <v>1</v>
@@ -20236,7 +21163,7 @@
         <v>20</v>
       </c>
       <c r="G1" t="s">
-        <v>541</v>
+        <v>574</v>
       </c>
       <c r="H1" t="s">
         <v>204</v>
@@ -20253,28 +21180,28 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>873</v>
+        <v>906</v>
       </c>
       <c r="C2" t="s">
-        <v>877</v>
+        <v>910</v>
       </c>
       <c r="D2" t="s">
-        <v>881</v>
+        <v>914</v>
       </c>
       <c r="E2" t="s">
-        <v>885</v>
+        <v>918</v>
       </c>
       <c r="F2" t="s">
-        <v>887</v>
+        <v>920</v>
       </c>
       <c r="G2" t="s">
-        <v>889</v>
+        <v>922</v>
       </c>
       <c r="H2" t="s">
-        <v>891</v>
+        <v>924</v>
       </c>
       <c r="I2" t="s">
-        <v>893</v>
+        <v>926</v>
       </c>
       <c r="J2" t="s">
         <v>1</v>
@@ -20349,31 +21276,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>874</v>
+        <v>907</v>
       </c>
       <c r="C5" t="s">
-        <v>878</v>
+        <v>911</v>
       </c>
       <c r="D5" t="s">
-        <v>882</v>
+        <v>915</v>
       </c>
       <c r="E5" t="s">
-        <v>886</v>
+        <v>919</v>
       </c>
       <c r="F5" t="s">
-        <v>888</v>
+        <v>921</v>
       </c>
       <c r="G5" t="s">
-        <v>890</v>
+        <v>923</v>
       </c>
       <c r="H5" t="s">
-        <v>892</v>
+        <v>925</v>
       </c>
       <c r="I5" t="s">
-        <v>894</v>
+        <v>927</v>
       </c>
       <c r="J5" t="s">
-        <v>895</v>
+        <v>928</v>
       </c>
     </row>
     <row r="6">
@@ -20477,13 +21404,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>875</v>
+        <v>908</v>
       </c>
       <c r="C9" t="s">
-        <v>879</v>
+        <v>912</v>
       </c>
       <c r="D9" t="s">
-        <v>883</v>
+        <v>916</v>
       </c>
       <c r="E9" t="s">
         <v>1</v>
@@ -20605,13 +21532,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>876</v>
+        <v>909</v>
       </c>
       <c r="C13" t="s">
-        <v>880</v>
+        <v>913</v>
       </c>
       <c r="D13" t="s">
-        <v>884</v>
+        <v>917</v>
       </c>
       <c r="E13" t="s">
         <v>1</v>
@@ -20755,7 +21682,7 @@
         <v>36</v>
       </c>
       <c r="E1" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="F1" t="s">
         <v>116</v>
@@ -20772,22 +21699,22 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>896</v>
+        <v>929</v>
       </c>
       <c r="C2" t="s">
-        <v>900</v>
+        <v>933</v>
       </c>
       <c r="D2" t="s">
-        <v>904</v>
+        <v>937</v>
       </c>
       <c r="E2" t="s">
-        <v>908</v>
+        <v>941</v>
       </c>
       <c r="F2" t="s">
-        <v>910</v>
+        <v>943</v>
       </c>
       <c r="G2" t="s">
-        <v>912</v>
+        <v>945</v>
       </c>
       <c r="H2" t="s">
         <v>1</v>
@@ -20850,25 +21777,25 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>897</v>
+        <v>930</v>
       </c>
       <c r="C5" t="s">
-        <v>901</v>
+        <v>934</v>
       </c>
       <c r="D5" t="s">
-        <v>905</v>
+        <v>938</v>
       </c>
       <c r="E5" t="s">
-        <v>909</v>
+        <v>942</v>
       </c>
       <c r="F5" t="s">
-        <v>911</v>
+        <v>944</v>
       </c>
       <c r="G5" t="s">
-        <v>913</v>
+        <v>946</v>
       </c>
       <c r="H5" t="s">
-        <v>914</v>
+        <v>947</v>
       </c>
     </row>
     <row r="6">
@@ -20954,13 +21881,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>898</v>
+        <v>931</v>
       </c>
       <c r="C9" t="s">
-        <v>902</v>
+        <v>935</v>
       </c>
       <c r="D9" t="s">
-        <v>906</v>
+        <v>939</v>
       </c>
       <c r="E9" t="s">
         <v>1</v>
@@ -21058,13 +21985,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>899</v>
+        <v>932</v>
       </c>
       <c r="C13" t="s">
-        <v>903</v>
+        <v>936</v>
       </c>
       <c r="D13" t="s">
-        <v>907</v>
+        <v>940</v>
       </c>
       <c r="E13" t="s">
         <v>1</v>
@@ -21201,22 +22128,22 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>915</v>
+        <v>948</v>
       </c>
       <c r="C2" t="s">
-        <v>919</v>
+        <v>952</v>
       </c>
       <c r="D2" t="s">
-        <v>923</v>
+        <v>956</v>
       </c>
       <c r="E2" t="s">
-        <v>927</v>
+        <v>960</v>
       </c>
       <c r="F2" t="s">
-        <v>929</v>
+        <v>962</v>
       </c>
       <c r="G2" t="s">
-        <v>931</v>
+        <v>964</v>
       </c>
       <c r="H2" t="s">
         <v>1</v>
@@ -21279,25 +22206,25 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>916</v>
+        <v>949</v>
       </c>
       <c r="C5" t="s">
-        <v>920</v>
+        <v>953</v>
       </c>
       <c r="D5" t="s">
-        <v>924</v>
+        <v>957</v>
       </c>
       <c r="E5" t="s">
-        <v>928</v>
+        <v>961</v>
       </c>
       <c r="F5" t="s">
-        <v>930</v>
+        <v>963</v>
       </c>
       <c r="G5" t="s">
-        <v>932</v>
+        <v>965</v>
       </c>
       <c r="H5" t="s">
-        <v>933</v>
+        <v>966</v>
       </c>
     </row>
     <row r="6">
@@ -21363,7 +22290,7 @@
         <v>169</v>
       </c>
       <c r="D8" t="s">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="E8" t="s">
         <v>1</v>
@@ -21383,13 +22310,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>917</v>
+        <v>950</v>
       </c>
       <c r="C9" t="s">
-        <v>921</v>
+        <v>954</v>
       </c>
       <c r="D9" t="s">
-        <v>925</v>
+        <v>958</v>
       </c>
       <c r="E9" t="s">
         <v>1</v>
@@ -21487,13 +22414,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>918</v>
+        <v>951</v>
       </c>
       <c r="C13" t="s">
-        <v>922</v>
+        <v>955</v>
       </c>
       <c r="D13" t="s">
-        <v>926</v>
+        <v>959</v>
       </c>
       <c r="E13" t="s">
         <v>1</v>
@@ -21640,7 +22567,7 @@
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>541</v>
+        <v>574</v>
       </c>
       <c r="O1" t="s">
         <v>204</v>
@@ -21649,7 +22576,7 @@
         <v>67</v>
       </c>
       <c r="Q1" t="s">
-        <v>446</v>
+        <v>214</v>
       </c>
       <c r="R1" t="s">
         <v>70</v>
@@ -21666,58 +22593,58 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>934</v>
+        <v>967</v>
       </c>
       <c r="C2" t="s">
-        <v>938</v>
+        <v>971</v>
       </c>
       <c r="D2" t="s">
-        <v>942</v>
+        <v>975</v>
       </c>
       <c r="E2" t="s">
-        <v>946</v>
+        <v>979</v>
       </c>
       <c r="F2" t="s">
-        <v>948</v>
+        <v>981</v>
       </c>
       <c r="G2" t="s">
-        <v>950</v>
+        <v>983</v>
       </c>
       <c r="H2" t="s">
-        <v>952</v>
+        <v>985</v>
       </c>
       <c r="I2" t="s">
-        <v>954</v>
+        <v>987</v>
       </c>
       <c r="J2" t="s">
-        <v>956</v>
+        <v>989</v>
       </c>
       <c r="K2" t="s">
-        <v>958</v>
+        <v>991</v>
       </c>
       <c r="L2" t="s">
-        <v>960</v>
+        <v>993</v>
       </c>
       <c r="M2" t="s">
-        <v>962</v>
+        <v>995</v>
       </c>
       <c r="N2" t="s">
-        <v>964</v>
+        <v>997</v>
       </c>
       <c r="O2" t="s">
-        <v>966</v>
+        <v>999</v>
       </c>
       <c r="P2" t="s">
-        <v>968</v>
+        <v>1001</v>
       </c>
       <c r="Q2" t="s">
-        <v>970</v>
+        <v>1003</v>
       </c>
       <c r="R2" t="s">
-        <v>972</v>
+        <v>1005</v>
       </c>
       <c r="S2" t="s">
-        <v>974</v>
+        <v>1007</v>
       </c>
       <c r="T2" t="s">
         <v>1</v>
@@ -21852,61 +22779,61 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>935</v>
+        <v>968</v>
       </c>
       <c r="C5" t="s">
-        <v>939</v>
+        <v>972</v>
       </c>
       <c r="D5" t="s">
-        <v>943</v>
+        <v>976</v>
       </c>
       <c r="E5" t="s">
-        <v>947</v>
+        <v>980</v>
       </c>
       <c r="F5" t="s">
-        <v>949</v>
+        <v>982</v>
       </c>
       <c r="G5" t="s">
-        <v>951</v>
+        <v>984</v>
       </c>
       <c r="H5" t="s">
-        <v>953</v>
+        <v>986</v>
       </c>
       <c r="I5" t="s">
-        <v>955</v>
+        <v>988</v>
       </c>
       <c r="J5" t="s">
-        <v>957</v>
+        <v>990</v>
       </c>
       <c r="K5" t="s">
-        <v>959</v>
+        <v>992</v>
       </c>
       <c r="L5" t="s">
-        <v>961</v>
+        <v>994</v>
       </c>
       <c r="M5" t="s">
-        <v>963</v>
+        <v>996</v>
       </c>
       <c r="N5" t="s">
-        <v>965</v>
+        <v>998</v>
       </c>
       <c r="O5" t="s">
-        <v>967</v>
+        <v>1000</v>
       </c>
       <c r="P5" t="s">
-        <v>969</v>
+        <v>1002</v>
       </c>
       <c r="Q5" t="s">
-        <v>971</v>
+        <v>1004</v>
       </c>
       <c r="R5" t="s">
-        <v>973</v>
+        <v>1006</v>
       </c>
       <c r="S5" t="s">
-        <v>975</v>
+        <v>1008</v>
       </c>
       <c r="T5" t="s">
-        <v>976</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="6">
@@ -22100,13 +23027,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>936</v>
+        <v>969</v>
       </c>
       <c r="C9" t="s">
-        <v>940</v>
+        <v>973</v>
       </c>
       <c r="D9" t="s">
-        <v>944</v>
+        <v>977</v>
       </c>
       <c r="E9" t="s">
         <v>1</v>
@@ -22286,7 +23213,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="C12" t="s">
         <v>42</v>
@@ -22348,13 +23275,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>937</v>
+        <v>970</v>
       </c>
       <c r="C13" t="s">
-        <v>941</v>
+        <v>974</v>
       </c>
       <c r="D13" t="s">
-        <v>945</v>
+        <v>978</v>
       </c>
       <c r="E13" t="s">
         <v>1</v>
@@ -22873,7 +23800,7 @@
         <v>67</v>
       </c>
       <c r="K1" t="s">
-        <v>446</v>
+        <v>214</v>
       </c>
       <c r="L1" t="s">
         <v>1</v>
@@ -22884,34 +23811,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>977</v>
+        <v>1010</v>
       </c>
       <c r="C2" t="s">
-        <v>981</v>
+        <v>1014</v>
       </c>
       <c r="D2" t="s">
-        <v>985</v>
+        <v>1018</v>
       </c>
       <c r="E2" t="s">
-        <v>989</v>
+        <v>1022</v>
       </c>
       <c r="F2" t="s">
-        <v>991</v>
+        <v>1024</v>
       </c>
       <c r="G2" t="s">
-        <v>993</v>
+        <v>1026</v>
       </c>
       <c r="H2" t="s">
-        <v>995</v>
+        <v>1028</v>
       </c>
       <c r="I2" t="s">
-        <v>997</v>
+        <v>1030</v>
       </c>
       <c r="J2" t="s">
-        <v>999</v>
+        <v>1032</v>
       </c>
       <c r="K2" t="s">
-        <v>1001</v>
+        <v>1034</v>
       </c>
       <c r="L2" t="s">
         <v>1</v>
@@ -22998,37 +23925,37 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>978</v>
+        <v>1011</v>
       </c>
       <c r="C5" t="s">
-        <v>982</v>
+        <v>1015</v>
       </c>
       <c r="D5" t="s">
-        <v>986</v>
+        <v>1019</v>
       </c>
       <c r="E5" t="s">
-        <v>990</v>
+        <v>1023</v>
       </c>
       <c r="F5" t="s">
-        <v>992</v>
+        <v>1025</v>
       </c>
       <c r="G5" t="s">
-        <v>994</v>
+        <v>1027</v>
       </c>
       <c r="H5" t="s">
-        <v>996</v>
+        <v>1029</v>
       </c>
       <c r="I5" t="s">
-        <v>998</v>
+        <v>1031</v>
       </c>
       <c r="J5" t="s">
-        <v>1000</v>
+        <v>1033</v>
       </c>
       <c r="K5" t="s">
-        <v>1002</v>
+        <v>1035</v>
       </c>
       <c r="L5" t="s">
-        <v>1003</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="6">
@@ -23150,13 +24077,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>979</v>
+        <v>1012</v>
       </c>
       <c r="C9" t="s">
-        <v>983</v>
+        <v>1016</v>
       </c>
       <c r="D9" t="s">
-        <v>987</v>
+        <v>1020</v>
       </c>
       <c r="E9" t="s">
         <v>1</v>
@@ -23302,13 +24229,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>980</v>
+        <v>1013</v>
       </c>
       <c r="C13" t="s">
-        <v>984</v>
+        <v>1017</v>
       </c>
       <c r="D13" t="s">
-        <v>988</v>
+        <v>1021</v>
       </c>
       <c r="E13" t="s">
         <v>1</v>
@@ -23470,7 +24397,7 @@
         <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="D1" t="s">
         <v>116</v>
@@ -23487,16 +24414,16 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>465</v>
+        <v>488</v>
       </c>
       <c r="C2" t="s">
-        <v>1007</v>
+        <v>1040</v>
       </c>
       <c r="D2" t="s">
-        <v>1011</v>
+        <v>1044</v>
       </c>
       <c r="E2" t="s">
-        <v>1015</v>
+        <v>1048</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
@@ -23547,19 +24474,19 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>1004</v>
+        <v>1037</v>
       </c>
       <c r="C5" t="s">
-        <v>1008</v>
+        <v>1041</v>
       </c>
       <c r="D5" t="s">
-        <v>1012</v>
+        <v>1045</v>
       </c>
       <c r="E5" t="s">
-        <v>1016</v>
+        <v>1049</v>
       </c>
       <c r="F5" t="s">
-        <v>1017</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="6">
@@ -23607,7 +24534,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="C8" t="s">
         <v>83</v>
@@ -23627,13 +24554,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>1005</v>
+        <v>1038</v>
       </c>
       <c r="C9" t="s">
-        <v>1009</v>
+        <v>1042</v>
       </c>
       <c r="D9" t="s">
-        <v>1013</v>
+        <v>1046</v>
       </c>
       <c r="E9" t="s">
         <v>1</v>
@@ -23707,13 +24634,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>1006</v>
+        <v>1039</v>
       </c>
       <c r="C13" t="s">
-        <v>1010</v>
+        <v>1043</v>
       </c>
       <c r="D13" t="s">
-        <v>1014</v>
+        <v>1047</v>
       </c>
       <c r="E13" t="s">
         <v>1</v>
@@ -23803,13 +24730,13 @@
         <v>149</v>
       </c>
       <c r="C1" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="D1" t="s">
         <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>500</v>
+        <v>533</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -23820,16 +24747,16 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>1018</v>
+        <v>1051</v>
       </c>
       <c r="C2" t="s">
-        <v>1022</v>
+        <v>1055</v>
       </c>
       <c r="D2" t="s">
-        <v>1025</v>
+        <v>1058</v>
       </c>
       <c r="E2" t="s">
-        <v>1028</v>
+        <v>1061</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
@@ -23880,19 +24807,19 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>1019</v>
+        <v>1052</v>
       </c>
       <c r="C5" t="s">
-        <v>1023</v>
+        <v>1056</v>
       </c>
       <c r="D5" t="s">
-        <v>1026</v>
+        <v>1059</v>
       </c>
       <c r="E5" t="s">
-        <v>1029</v>
+        <v>1062</v>
       </c>
       <c r="F5" t="s">
-        <v>1030</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="6">
@@ -23960,13 +24887,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>1020</v>
+        <v>1053</v>
       </c>
       <c r="C9" t="s">
-        <v>1005</v>
+        <v>1038</v>
       </c>
       <c r="D9" t="s">
-        <v>1027</v>
+        <v>1060</v>
       </c>
       <c r="E9" t="s">
         <v>1</v>
@@ -24040,13 +24967,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>1021</v>
+        <v>1054</v>
       </c>
       <c r="C13" t="s">
-        <v>1024</v>
+        <v>1057</v>
       </c>
       <c r="D13" t="s">
-        <v>783</v>
+        <v>816</v>
       </c>
       <c r="E13" t="s">
         <v>1</v>
@@ -24130,7 +25057,142 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1031</v>
+        <v>1064</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" t="s">
+        <v>361</v>
+      </c>
+      <c r="D8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
